--- a/prompt_responses.xlsx
+++ b/prompt_responses.xlsx
@@ -556,12 +556,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Testament</t>
+          <t>Flagged_Words</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Tapestry</t>
+          <t>Flagged_Penalty</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -576,137 +576,137 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>BERTScore</t>
+          <t>BERT_Precision</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>BERT_Recall</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BERT_F1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Named_Entities</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Response_Dur</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Chars/Sec</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Words/Sec</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Tokens/Sec</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Sentences/Sec</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Msg_Timestamp</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Msg_Month</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Msg_Year</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Msg_AuthorRole</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Msg_AuthorName</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GPT_Name</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>GPT_ID</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Sequence_Number</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Stored_Memory</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Msg_Status</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Msg_EndTurn</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Msg_Weight</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Msg_VoiceMode</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Msg_Metadata</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Msg_Parent_ID</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Msg_Children_IDs</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Polarity_Sentiment</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Subjective_Sentiment</t>
-        </is>
-      </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>URL_List</t>
+          <t>Sentiment_Polarity</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Code_Related</t>
+          <t>Sentiment_Subjectivity</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -856,71 +856,79 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>0.6901205265470962</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>-0.1403067708015442</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.232819601893425</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.04083859175443649</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>[('## Quantum Computing', 'MONEY'), ('quantum', 'ORG'), ('2024', 'DATE'), ('1', 'CARDINAL'), ('Quantum', 'ORG'), ('quantum', 'ORG'), ('Rigetti', 'LOC'), ('IBM', 'ORG'), ('2', 'CARDINAL'), ('Quantum', 'ORG'), ('Shor', 'PERSON'), ('Grover', 'PERSON'), ('3', 'CARDINAL'), ('New Horizons', 'ORG'), ('Quantum', 'ORG'), ('Quantum', 'ORG'), ('4', 'CARDINAL'), ('quantum', 'ORG'), ('RSA &amp; ECC:*', 'ORG'), ('Quantum', 'ORG'), ('RSA &amp; ECC', 'ORG'), ('PQC', 'ORG'), ('quantum', 'ORG'), ('Quantum', 'ORG'), ('Key Takeaways', 'PERSON'), ('PQC', 'ORG'), ('quantum technologies', 'ORG'), ('PQC', 'ORG'), ('2024', 'DATE'), ('quantum', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>100.1532454490662</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="n">
         <v>1</v>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB2" t="n">
+        <v>0.1191890331890332</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.5384981407481406</v>
       </c>
       <c r="BD2" t="n">
         <v>4262</v>
@@ -1009,75 +1017,79 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>0.578351599562234</v>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>0.001959769520908594</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.267485648393631</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1326631754636765</v>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>[('2021', 'DATE'), ('2024', 'DATE'), ('the IPCC AR6 Report', 'ORG'), ('2021', 'DATE'), ('1.5', 'CARDINAL'), ('1.5', 'CARDINAL'), ('Arctic', 'LOC'), ('1.5', 'CARDINAL'), ('IPCC', 'ORG'), ('IPCC', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>42.30945801734924</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="n">
         <v>2</v>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>['https://www.ipcc.ch/.']</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB3" t="n">
+        <v>0.07064664502164503</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.5075965700965701</v>
       </c>
       <c r="BD3" t="n">
         <v>1691</v>
@@ -1176,71 +1188,79 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>0.7375663059874079</v>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>0.01116325799375772</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.4220069646835327</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2096892148256302</v>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Artemis', 'ORG'), ('NASA', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('November 2022', 'DATE'), ('Moon', 'PERSON'), ('the Lunar Gateway', 'FAC'), ('first', 'ORDINAL'), ('Gateway', 'PERSON'), ('this year', 'DATE'), ('Starship', 'PERSON'), ('NASA', 'ORG'), ('Space Launch System', 'ORG'), ('Orion', 'ORG'), ('Lockheed Martin', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('first', 'ORDINAL'), ('NASA', 'ORG'), ('Lunar Reconnaissance Orbiter', 'ORG'), ('LRO', 'ORG'), ('Artemis II Mission:*', 'ORG'), ('2024', 'DATE'), ('Moon', 'PERSON'), ('Lunar Gateway Operations:*', 'ORG'), ('first', 'ORDINAL'), ('the Lunar Gateway', 'FAC'), ('the early 2030s', 'DATE'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Earth', 'LOC'), ('Moon', 'PERSON'), ('ISRU', 'ORG'), ('Mars', 'LOC'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>91.65349817276001</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="n">
         <v>3</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB4" t="n">
+        <v>0.03775510204081633</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.4542517006802723</v>
       </c>
       <c r="BD4" t="n">
         <v>3896</v>
@@ -1344,71 +1364,79 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>0.5249437664303414</v>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>-0.1377714425325394</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.2859005331993103</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.06663424521684647</v>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>[('CRISPR', 'PERSON'), ('1', 'CARDINAL'), ('CRISPR', 'PERSON'), ('2', 'CARDINAL'), ('Cancer Therapy:*', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('Gene Silencing', 'PERSON'), ('CRISPR', 'GPE'), ('CFTR', 'ORG'), ('CRISPR technology holds immense', 'ORG'), ('Antimicrobial Resistance:*', 'ORG'), ('Methicillin', 'PERSON'), ('Staphylococcus aureus', 'PERSON'), ('3', 'CARDINAL'), ('CRISPR', 'PERSON'), ('Gene Therapy:*', 'PERSON'), ('4', 'CARDINAL'), ('Challenges and Future Directions', 'ORG'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('PubMed', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>102.7815997600555</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="n">
         <v>4</v>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB5" t="n">
+        <v>0.02909050825717492</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.5356577064910398</v>
       </c>
       <c r="BD5" t="n">
         <v>4255</v>
@@ -1506,71 +1534,79 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>0.4843318852744758</v>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>-0.2300157397985458</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.193474143743515</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.02571054361760616</v>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>[('2024', 'DATE'), ('Nobel Prize in Physics', 'WORK_OF_ART'), ('Potential Candidates &amp; Research Areas:*', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Fundamental Physics Research:*', 'ORG'), ('the Higgs Boson', 'ORG'), ('Particle Physics:*', 'ORG'), ('Groundbreaking Research:*', 'ORG'), ('Award', 'PERSON'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('3', 'CARDINAL'), ('Neutrino Physics:*', 'ORG'), ('4', 'CARDINAL'), ('Dark Matter &amp; Dark Energy:*', 'ORG'), ('Nobel Prize', 'WORK_OF_ART'), ('The Nobel Prize in Physics', 'WORK_OF_ART'), ('the Swedish Royal Academy of Sciences', 'ORG'), ('Nobelprize.org', 'ORG'), ('the Nobel Prizes', 'WORK_OF_ART'), ('Physics News Outlets:*', 'ORG'), ('Physics', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>77.72137665748596</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="n">
         <v>5</v>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB6" t="n">
+        <v>0.1124868374868375</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.6226395226395226</v>
       </c>
       <c r="BD6" t="n">
         <v>3075</v>
@@ -1665,71 +1701,79 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>0.5733480679766433</v>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>-0.09463740885257721</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.2549121677875519</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07555900514125824</v>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('The year 2024', 'DATE'), ('one', 'CARDINAL'), ('International Relations:*', 'ORG'), ('AI', 'ORG'), ('2024', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>76.08661985397339</v>
       </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="n">
         <v>7</v>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB7" t="n">
+        <v>0.1470143398268398</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.4777387716450217</v>
       </c>
       <c r="BD7" t="n">
         <v>3574</v>
@@ -1830,71 +1874,79 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>0.6749620551895958</v>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>-0.04173212498426437</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.3762732446193695</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.1600854992866516</v>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>[('2024', 'CARDINAL'), ('The coming year', 'DATE'), ('Global Recovery &amp; Rebound', 'ORG'), ('2024', 'DATE'), ('COVID-19', 'ORG'), ('Structural Reforms &amp; Investment:*', 'ORG'), ('Demographic Shifts &amp; Emerging Consumer Markets:*', 'ORG'), ('Geopolitical Uncertainty &amp; Conflict:*', 'ORG'), ('Russia', 'GPE'), ('Fluctuations &amp; Exchange Rate Risks:*', 'ORG'), ('Sustainability &amp; Financial Fragility:*', 'ORG'), ('Asia', 'LOC'), ('Countries', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE'), ('India', 'GPE'), ('China', 'GPE'), ('Latin America:*', 'LOC'), ('Latin American', 'NORP'), ('recent years', 'DATE'), ('Africa', 'LOC'), ('Africa', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>120.6711721420288</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
       <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="n">
         <v>8</v>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB8" t="n">
+        <v>0.115196478778953</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.4191334953706087</v>
       </c>
       <c r="BD8" t="n">
         <v>5304</v>
@@ -1997,71 +2049,79 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>0.6721609056370546</v>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>-0.1239426881074905</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3529394567012787</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1047068685293198</v>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>[('## Fusion Energy', 'MONEY'), ('1.', 'CARDINAL'), ('National Ignition Facility', 'ORG'), ('NIF', 'ORG'), ('Livermore National Laboratory', 'ORG'), ('2023', 'DATE'), ('NIF', 'ORG'), ('Princeton Plasma Physics Laboratory', 'ORG'), ('2', 'CARDINAL'), ('Development of New Technologies:*', 'ORG'), ('Magnetic Confinement Fusion', 'ORG'), ('MCF', 'ORG'), ('Inertial Confinement Fusion', 'ORG'), ('3', 'CARDINAL'), ('Clean &amp; Sustainable:** Fusion', 'ORG'), ('Challenges &amp; Road Ahead:*', 'ORG'), ('Safety &amp; waste management:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>83.15560221672058</v>
       </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
       <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="n">
         <v>9</v>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB9" t="n">
+        <v>0.1486541889483066</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.5385858585858585</v>
       </c>
       <c r="BD9" t="n">
         <v>3557</v>
@@ -2180,71 +2240,79 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>0.5595763689038059</v>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>-0.1107913628220558</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.298872321844101</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.08719215542078018</v>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('FeFETs', 'WORK_OF_ART'), ('A Deep Dive\n\nFerroelectric', 'WORK_OF_ART'), ('Key Features &amp; Advantages:*', 'ORG'), ('Feature', 'PRODUCT'), ('Traditional Transistors', 'ORG'), ('FeFETs', 'PERSON'), ('Slow', 'PERSON'), ('Fast', 'PERSON'), ('Power Consumption', 'PRODUCT'), ('Moderate', 'PERSON'), ('Memory', 'PRODUCT'), ('Limited', 'ORG'), ('Advanced Electronics:*', 'ORG'), ('Analog Circuits &amp; Signal Processing:*', 'ORG'), ('2D Materials', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('FeFET', 'NORP'), ('FeFET', 'GPE'), ('FeFETs', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>127.3822445869446</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="n">
         <v>10</v>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr">
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB10" t="n">
+        <v>0.1370280106672512</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.5745205673370228</v>
       </c>
       <c r="BD10" t="n">
         <v>4692</v>
@@ -2340,71 +2408,79 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>0.7460336672406538</v>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>-0.07635849714279175</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.3110949099063873</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1113950535655022</v>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('Modern Warfare', 'ORG'), ('Moral Agency &amp; Responsibility:*', 'ORG'), ('AWS', 'ORG'), ('Taking a Human Life', 'WORK_OF_ART'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Potential Societal Impacts:*', 'ORG'), ('Military Doctrine &amp; Strategy:*', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Uneven Access &amp; Disproportionate Impact:*', 'ORG'), ('AWS', 'ORG'), ('International Treaties &amp; Regulations:*', 'ORG'), ('AWS', 'ORG'), ('The United Nations', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>84.84045839309692</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="n">
         <v>11</v>
       </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB11" t="n">
+        <v>0.07421875000000003</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.4460937500000001</v>
       </c>
       <c r="BD11" t="n">
         <v>3529</v>
@@ -2506,71 +2582,79 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>0.558203544696746</v>
+      </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>-0.04088065028190613</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.3579966425895691</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1521375775337219</v>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Cons', 'PERSON'), ('the United States', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Hazard', 'PERSON'), ('UBI', 'ORG'), ('Stakeholders', 'NORP'), ('UBI', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Social Experimentation:*', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('US', 'GPE'), ('UBI', 'ORG'), ('US', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>107.5992617607117</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
       <c r="AH12" t="n">
         <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
       <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="n">
         <v>12</v>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB12" t="n">
+        <v>0.05552031947380787</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.4837855297157623</v>
       </c>
       <c r="BD12" t="n">
         <v>4735</v>
@@ -2682,71 +2766,79 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>0.7294587161506744</v>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>0.162029430270195</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.2753111124038696</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.219320997595787</v>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>[('US', 'GPE'), ('Massive Energy Demand Surge', 'ORG'), ('Overnight', 'WORK_OF_ART'), ('years', 'DATE'), ('decades', 'DATE'), ('overnight', 'TIME'), ('EV', 'ORG'), ('decade', 'DATE'), ('US', 'GPE'), ('Focus on Public Transportation', 'ORG'), ('metro', 'FAC'), ('overnight', 'TIME'), ('US', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
         <v>50.86786246299744</v>
       </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="n">
         <v>13</v>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB13" t="n">
+        <v>0.09752546473134709</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.6248654613360496</v>
       </c>
       <c r="BD13" t="n">
         <v>3467</v>
@@ -2839,71 +2931,79 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>0.6173458898691805</v>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>-0.03602756932377815</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.3973591029644012</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.172842413187027</v>
+      </c>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>[('## The River of Consciousness: Stream of', 'MONEY'), ("James Joyce's", 'PERSON'), ('Joyce', 'PERSON'), ('linear', 'ORG'), ('Leopold Bloom', 'PRODUCT'), ('Stephen Dedalus', 'PERSON'), ('Internal Monologues &amp; Dialogue:*', 'ORG'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('post-World War I Europe', 'EVENT'), ("James Joyce's", 'PERSON'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE14" t="n">
+      <c r="AG14" t="n">
         <v>60.74453854560852</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="n">
         <v>14</v>
       </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB14" t="n">
+        <v>0.1405730072396739</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.3974454557787893</v>
       </c>
       <c r="BD14" t="n">
         <v>3914</v>
@@ -2997,71 +3097,79 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>0.5959206166252631</v>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>-0.06485846638679504</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.3699373304843903</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1446512490510941</v>
+      </c>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>[('## Absurdity', 'MONEY'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ('post-World War II', 'EVENT'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Reflection of Post-War Existentialism:*', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('World War II', 'EVENT'), ('Trauma', 'PERSON'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('one', 'CARDINAL'), ('Beckett', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE15" t="n">
+      <c r="AG15" t="n">
         <v>71.35194230079651</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="n">
         <v>15</v>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB15" t="n">
+        <v>-0.05892857142857142</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.5339650145772595</v>
       </c>
       <c r="BD15" t="n">
         <v>3789</v>
@@ -3160,71 +3268,79 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>0.7176723901592016</v>
+      </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>-0.1431537419557571</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3008864223957062</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.07055787742137909</v>
+      </c>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>[('##  ', 'MONEY'), ('A Tale of Two Worlds', 'WORK_OF_ART'), ("Dante Alighieri's", 'PERSON'), ('Purgatorio', 'PERSON'), ('Paradiso', 'PERSON'), ('Divine Comedy', 'PERSON'), ("William Blake's", 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Blake', 'ORG'), ('Feature', 'PRODUCT'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Christianity', 'NORP'), ('Language', 'LOC'), ('Christian', 'NORP'), ('Utilizes', 'ORG'), ('Blake', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Virgil', 'PERSON'), ('the Garden of Eden', 'FAC'), ('Dante', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Lamb', 'PERSON'), ('Tiger', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
         <v>68.69725823402405</v>
       </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="n">
         <v>16</v>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB16" t="n">
+        <v>0.1284722222222222</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.4565972222222223</v>
       </c>
       <c r="BD16" t="n">
         <v>3626</v>
@@ -3316,71 +3432,79 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>0.6252830343655603</v>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>-0.07709217071533203</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3197880387306213</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.1150089576840401</v>
+      </c>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>[('Japanese', 'NORP'), ('Impressionism', 'ORG'), ('Western', 'NORP'), ('Katsushika Hokusai', 'PERSON'), ('Utagawa Hiroshige', 'PERSON'), ('Impressionist', 'NORP'), ('Monet', 'PERSON'), ('Renoir', 'WORK_OF_ART'), ('Impressionist', 'NORP'), ('Capturing Daily Life:*', 'ORG'), ('Impressionism', 'ORG'), ('Cross-Cultural Exchange:*', 'ORG'), ('French', 'NORP'), ('Japanese', 'NORP'), ('Monet', 'PERSON'), ('"Water Lilies" Series', 'WORK_OF_ART'), ('Monet', 'PERSON'), ("Le Déjeuner sur l'herbe", 'WORK_OF_ART'), ('Impressionism', 'ORG'), ('Japanese', 'NORP'), ('Degas', 'PERSON'), ('Impressionism', 'ORG'), ('Impressionist', 'NORP')]</t>
         </is>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
         <v>57.68428087234497</v>
       </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
       <c r="AH17" t="n">
         <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="n">
         <v>17</v>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB17" t="n">
+        <v>0.2088723776223776</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.5013694638694639</v>
       </c>
       <c r="BD17" t="n">
         <v>3191</v>
@@ -3480,71 +3604,79 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>0.6316717349348221</v>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>-0.03703929111361504</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.3263139128684998</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1395480632781982</v>
+      </c>
+      <c r="AF18" t="inlineStr">
         <is>
           <t>[('## Atonality', 'MONEY'), ('Arnold Schoenberg', 'PERSON'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Anton Webern', 'PERSON'), ('Alban Berg', 'PERSON'), ('the Intonation of the Sounds:*', 'ORG'), ('Complexity:*', 'ORG'), ('Ordering" Sounds:**', 'WORK_OF_ART'), ('20th-Century', 'DATE'), ('the Musical World:*', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Debussy &amp; Modernist Expression:*', 'ORG'), ('Schoenberg', 'ORG'), ('Debussy', 'PERSON'), ('Avant-Garde Compositions:*', 'ORG'), ('Dmitri Shostakovich', 'PERSON'), ('Pierre Boulez', 'PERSON'), ('Karlheinz Stockhausen', 'PERSON'), ('Schoenberg', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('today', 'DATE'), ('serialist', 'NORP'), ('Schoenberg', 'ORG'), ('Arnold Schoenberg', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE18" t="n">
+      <c r="AG18" t="n">
         <v>86.64069390296936</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="n">
         <v>18</v>
       </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr">
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB18" t="n">
+        <v>0.1250988266119845</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.4339749943039417</v>
       </c>
       <c r="BD18" t="n">
         <v>4486</v>
@@ -3644,71 +3776,79 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>0.5948178587250076</v>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>-0.1450158655643463</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3007166385650635</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.06946625560522079</v>
+      </c>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>[('NLP', 'ORG'), ('1', 'CARDINAL'), ('RNN', 'ORG'), ('one', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('GPT', 'ORG'), ('Generative Pre-trained', 'PERSON'), ('Transformer', 'ORG'), ('BERT', 'ORG'), ('4', 'CARDINAL'), ('NLP Beyond Translation:*', 'ORG'), ('Question Answering:*', 'ORG'), ('NLP', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE19" t="n">
+      <c r="AG19" t="n">
         <v>45.96540498733521</v>
       </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="n">
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="n">
         <v>19</v>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr">
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB19" t="n">
+        <v>0.2135756519902861</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.6021433850702143</v>
       </c>
       <c r="BD19" t="n">
         <v>3340</v>
@@ -3806,71 +3946,79 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>0.6170399831794966</v>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>-0.0673651322722435</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.3553996086120605</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1366341263055801</v>
+      </c>
+      <c r="AF20" t="inlineStr">
         <is>
           <t>[('## Fine', 'MONEY'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Pre-Trained Model:*', 'PERSON'), ('GPT-3', 'ORG'), ('BERT', 'ORG'), ('2', 'CARDINAL'), ('Adapt', 'FAC'), ('3', 'CARDINAL'), ('Transfer Learning:*', 'FAC'), ('Faster Training Time:*', 'PERSON'), ('BERT', 'ORG'), ('Question Answering:*', 'ORG'), ('GPT-3', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE20" t="n">
+      <c r="AG20" t="n">
         <v>55.45954608917236</v>
       </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
       <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="n">
         <v>20</v>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr">
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB20" t="n">
+        <v>0.1158926406926407</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.4889580086580086</v>
       </c>
       <c r="BD20" t="n">
         <v>3528</v>
@@ -3974,71 +4122,79 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>0.5860685973817958</v>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>-0.2001161724328995</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.2434670627117157</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.01336682680994272</v>
+      </c>
+      <c r="AF21" t="inlineStr">
         <is>
           <t>[('##  Challenges', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('Linguistic Nuances:*', 'ORG'), ('Sarcasm', 'ORG'), ('one', 'CARDINAL'), ('today', 'DATE'), ('summer day', 'DATE'), ('Irony', 'ORG'), ('Sarcasm', 'ORG'), ('2', 'CARDINAL'), ('Complexity of Emotional Expressions:*', 'ORG'), ('Sarcasm', 'ORG'), ('3', 'CARDINAL'), ('Data Limitations &amp; Model Bias:*', 'ORG'), ('Limited Training', 'ORG'), ('Sarcasm', 'ORG'), ('4.', 'CARDINAL'), ('Evolving Communication Styles:*', 'ORG'), ('BERT', 'ORG'), ('XLNet', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE21" t="n">
+      <c r="AG21" t="n">
         <v>69.66839718818665</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
       <c r="AH21" t="n">
         <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="n">
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="n">
         <v>21</v>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB21" t="n">
+        <v>0.1071603641456583</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.5662756769374415</v>
       </c>
       <c r="BD21" t="n">
         <v>4547</v>
@@ -4146,71 +4302,79 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>0.5949359130294011</v>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>-0.2770205140113831</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.245700478553772</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.02786130085587502</v>
+      </c>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>[('## Advancements', 'MONEY'), ('1', 'CARDINAL'), ('NLU', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Dialogue Management &amp; Contextualization:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Future of Human-AI Interaction:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('1', 'CARDINAL'), ('Personalization &amp; Empathy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Augmentation &amp; Productivity:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Human-Machine Gap:*', 'ORG'), ('Challenges &amp; Ethical Considerations:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
         <v>57.94323682785034</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
       <c r="AH22" t="n">
         <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
       <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="n">
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="n">
         <v>22</v>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB22" t="n">
+        <v>0.203431899641577</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.4850089605734768</v>
       </c>
       <c r="BD22" t="n">
         <v>3978</v>
@@ -4314,71 +4478,79 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>0.6567690075740434</v>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>-0.1292581260204315</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.2811882197856903</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.06908448040485382</v>
+      </c>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>[('AI Systems', 'ORG'), ('1', 'CARDINAL'), ('Data Representation &amp; Bias Mitigation:*', 'ORG'), ('Bias Detection &amp; Correction:*', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Content &amp; Language Understanding:*', 'ORG'), ('Cultural Sensitivity Training:*', 'ORG'), ('3', 'CARDINAL'), ('Ethical Considerations &amp; User Transparency:*', 'ORG'), ('User Consent &amp; Privacy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Continuous Learning &amp; Improvement:*', 'ORG'), ('Feedback Mechanisms:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('5', 'CARDINAL'), ('Responsible Deployment &amp; Community Engagement:*', 'ORG'), ('Cultural Sensitivity Guidelines:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Challenges &amp; Limitations:*', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
         <v>57.00896525382996</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
       <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="n">
         <v>23</v>
       </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr">
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB23" t="n">
+        <v>0.1581393939393939</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.5093000000000001</v>
       </c>
       <c r="BD23" t="n">
         <v>4065</v>
@@ -4477,71 +4649,79 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>0.619339183246679</v>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>-0.1237265467643738</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.3230295777320862</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.0912291556596756</v>
+      </c>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('English', 'LANGUAGE'), ('2', 'CARDINAL'), ('Limited Linguistic Resources:*', 'ORG'), ('NLP', 'ORG'), ('Idiom Variations', 'ORG'), ('Idioms', 'ORG'), ('3', 'CARDINAL'), ('Ambiguous Interpretations &amp; Potential for Miscommunication:*', 'ORG'), ('Humor &amp; Irony:*', 'ORG'), ('4', 'CARDINAL'), ('Bridging Linguistic &amp; Cultural Gaps:*', 'ORG'), ('5', 'CARDINAL'), ('Overcoming Challenges', 'ORG'), ('NLP', 'ORG'), ('Deep Learning &amp; Neural Networks:*', 'ORG'), ('Context-Aware Embeddings:*', 'ORG'), ('NLP', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE24" t="n">
+      <c r="AG24" t="n">
         <v>53.43923115730286</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
       <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="n">
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="n">
         <v>24</v>
       </c>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr">
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB24" t="n">
+        <v>0.1119112972373842</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.4853689587385239</v>
       </c>
       <c r="BD24" t="n">
         <v>3601</v>
@@ -4644,71 +4824,79 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>0.6354650889882819</v>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>-0.1492152214050293</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.2865510582923889</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.06071878224611282</v>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>[('## The Importance of Cultural Competence', 'MONEY'), ('AI Language Models', 'WORK_OF_ART'), ('AI language', 'FAC'), ('1', 'CARDINAL'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Promoting Accurate', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Fostering Ethical AI Development:*', 'ORG'), ('AI', 'ORG'), ('AI language', 'FAC'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE25" t="n">
+      <c r="AG25" t="n">
         <v>55.86469006538391</v>
       </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
       <c r="AH25" t="n">
         <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
       <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="n">
         <v>25</v>
       </c>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr">
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB25" t="n">
+        <v>0.1095866970866971</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.4426348426348428</v>
       </c>
       <c r="BD25" t="n">
         <v>3878</v>
@@ -4822,71 +5010,79 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>0.6122325828008451</v>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>-0.2044266015291214</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.2859277725219727</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.0302589163184166</v>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>[('##  Algorithm', 'MONEY'), ('1', 'CARDINAL'), ('CPU', 'ORG'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('3', 'CARDINAL'), ('CPU', 'ORG'), ('two', 'CARDINAL'), ('1.5', 'CARDINAL'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('first', 'ORDINAL'), ('1', 'CARDINAL'), ('First', 'ORDINAL'), ('FCFS', 'ORG'), ('SJF', 'ORG'), ('2', 'CARDINAL'), ('Monitoring &amp; Adjustment:*', 'ORG'), ('1', 'CARDINAL'), ('Monitoring Execution Times', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Eigen', 'ORG'), ('4', 'CARDINAL'), ('Parallelism &amp; Multithreading:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE26" t="n">
+      <c r="AG26" t="n">
         <v>76.56311798095703</v>
       </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
       </c>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="n">
         <v>26</v>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr">
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB26" t="n">
+        <v>0.090625</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.4541071428571429</v>
       </c>
       <c r="BD26" t="n">
         <v>4264</v>
@@ -4997,71 +5193,79 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="n">
+        <v>0.6497684914338067</v>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>-0.1791880279779434</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.359444797039032</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.07720862329006195</v>
+      </c>
+      <c r="AF27" t="inlineStr">
         <is>
           <t>[('## Trade', 'MONEY'), ('Privacy &amp; Security', 'ORG'), ('Digital Contact Tracing Systems', 'ORG'), ('Digital', 'ORG'), ('third', 'ORDINAL'), ('Data Minimization:*', 'ORG'), ('Access &amp; Correction:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE27" t="n">
+      <c r="AG27" t="n">
         <v>64.36975145339966</v>
       </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
       <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="n">
         <v>27</v>
       </c>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr">
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB27" t="n">
+        <v>0.1044703595724004</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.5371626672647083</v>
       </c>
       <c r="BD27" t="n">
         <v>4170</v>
@@ -5167,71 +5371,79 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>0.6234421775895662</v>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>-0.2263300269842148</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.3212510645389557</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.0339999608695507</v>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>[('## Mitigating', 'MONEY'), ('I. Prevention &amp; Detection:*', 'ORG'), ('AI', 'ORG'), ('Response &amp; Accountability:*', 'ORG'), ('Collaboration &amp; Trust:*', 'ORG'), ('Ethical Considerations:*', 'ORG'), ('AI:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE28" t="n">
+      <c r="AG28" t="n">
         <v>72.80426716804504</v>
       </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
       <c r="AH28" t="n">
         <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
       </c>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
       <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="n">
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="n">
         <v>28</v>
       </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr">
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB28" t="n">
+        <v>0.06944920907185059</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.454593100819516</v>
       </c>
       <c r="BD28" t="n">
         <v>4163</v>
@@ -5344,71 +5556,79 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>0.585142035207212</v>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>-0.2683748602867126</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.2484864145517349</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.02182964794337749</v>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>[('## A Sustainable Urban Transportation System', 'MONEY'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Key Components:*', 'ORG'), ('Subway Network:*', 'ORG'), ('metro', 'ORG'), ('BRT', 'ORG'), ('Protected Bike Lanes &amp; Shared Paths:** Extensive', 'ORG'), ('Micro-Transit Service Network:*', 'ORG'), ('last-mile', 'QUANTITY'), ('Smart Technology Integration', 'ORG'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('Universal Access Design:*', 'ORG'), ('5', 'CARDINAL'), ('Continuous Improvement &amp; Evaluation:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
         <v>80.75700879096985</v>
       </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
       <c r="AH29" t="n">
         <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
       <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="n">
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="n">
         <v>29</v>
       </c>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr">
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB29" t="n">
+        <v>0.07176587301587301</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.3439407814407814</v>
       </c>
       <c r="BD29" t="n">
         <v>4850</v>
@@ -5535,71 +5755,79 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>0.5887346680240991</v>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>-0.4632424712181091</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.1737278252840042</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.1640225499868393</v>
+      </c>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('Data Collection &amp; Preparation:*', 'ORG'), ('Genomics Companies:*', 'ORG'), ('Data Cleaning &amp; Preprocessing:*', 'ORG'), ('-1', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('SMOTE', 'PERSON'), ('2', 'CARDINAL'), ('Feature Engineering &amp; Selection:*', 'ORG'), ('Nucleotide Polymorphisms', 'PERSON'), ('Polygenic Risk Score', 'ORG'), ('Lifestyle Data:*', 'ORG'), ('Stress Levels:*', 'ORG'), ('PCA', 'ORG'), ('linear', 'ORG'), ('3', 'CARDINAL'), ('Model Selection &amp; Training:*', 'ORG'), ('Linear Regression', 'ORG'), ('Vector Machines', 'PERSON'), ('Decision Trees', 'PERSON'), ('Random Forests', 'PERSON'), ('Support Vector Classification', 'ORG'), ('Naive Bayes', 'PERSON'), ('K-Nearest Neighbors', 'ORG'), ('XGBoost', 'ORG'), ('LightGBM', 'ORG'), ('4', 'CARDINAL'), ('Model Evaluation &amp; Analysis:*', 'ORG'), ('F1', 'CARDINAL'), ('AUC', 'ORG'), ('5', 'CARDINAL'), ('6', 'CARDINAL'), ('Implementation &amp; Deployment:*', 'ORG'), ('Data Quality is Critical:*', 'ORG'), ('Collaboration &amp; Expertise:*', 'ORG'), ('clinicians', 'NORP'), ('Continuous Improvement:*', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE30" t="n">
+      <c r="AG30" t="n">
         <v>92.6415958404541</v>
       </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
       <c r="AH30" t="n">
         <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
       </c>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
       <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="n">
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="n">
         <v>30</v>
       </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr">
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB30" t="n">
+        <v>0.07926556202418271</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.494752948201224</v>
       </c>
       <c r="BD30" t="n">
         <v>5093</v>
@@ -5701,71 +5929,79 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>0.5097694405820163</v>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>-0.1975468993186951</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.2780659198760986</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.03048140928149223</v>
+      </c>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>[('quantum entanglement', 'ORG'), ('Quantum Entanglement', 'ORG'), ('two', 'CARDINAL'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('first', 'ORDINAL'), ('Shared State:*', 'ORG'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Quantum Cryptography:*', 'ORG'), ('two', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Quantum Computing:*', 'ORG'), ('Quantum Algorithms:*', 'PERSON'), ('quantum entanglement', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Applications Beyond Cryptography:*', 'PERSON'), ('GPS systems', 'ORG'), ('Nutshell', 'PERSON'), ('Quantum', 'ORG'), ('quantum', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
         <v>52.81560754776001</v>
       </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
       </c>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
       <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="n">
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="n">
         <v>31</v>
       </c>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr">
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB31" t="n">
+        <v>0.08573365934477045</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.5234013414568971</v>
       </c>
       <c r="BD31" t="n">
         <v>3167</v>
@@ -5868,71 +6104,79 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>0.660397932999078</v>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>-0.05138982832431793</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.3940970599651337</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.1630093157291412</v>
+      </c>
+      <c r="AF32" t="inlineStr">
         <is>
           <t>[('CRISPR-Cas9 Gene Editing', 'PERSON'), ('two', 'CARDINAL'), ('1', 'CARDINAL'), ('The Cas9 Enzyme:*', 'ORG'), ('2', 'CARDINAL'), ('Guide RNA', 'ORG'), ('RNA', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Cas9', 'NORP'), ('3', 'CARDINAL'), ('Target Recognition &amp; Cut:*', 'ORG'), ('Cas9', 'NORP'), ('4', 'CARDINAL'), ('Two', 'CARDINAL'), ('HDR', 'ORG'), ('Cas9', 'NORP'), ('5', 'CARDINAL'), ('## Ethical Implications', 'MONEY'), ('CRISPR-Cas9', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Social Inequality:*', 'ORG'), ('4.', 'CARDINAL'), ('CRISPR-Cas9', 'ORG'), ('5', 'CARDINAL'), ('Societal Acceptance:*', 'ORG'), ("CRISPR-Cas9's", 'ORG'), ('CRISPR-Cas9', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE32" t="n">
+      <c r="AG32" t="n">
         <v>69.87185478210449</v>
       </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
       <c r="AH32" t="n">
         <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
       </c>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="n">
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="n">
         <v>32</v>
       </c>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr">
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB32" t="n">
+        <v>0.08463901689708143</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0.5684907834101383</v>
       </c>
       <c r="BD32" t="n">
         <v>3971</v>
@@ -6026,71 +6270,79 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>0.7872681501724279</v>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>-0.06046773493289948</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.4018425643444061</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.1615966707468033</v>
+      </c>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>[('two', 'CARDINAL'), ('about 95%', 'PERCENT'), ('Dark Matter:*', 'PERSON'), ('Microwave Background', 'PERSON'), ('CMB', 'ORG'), ('CMB', 'ORG'), ('the Big Bang', 'GPE'), ('Dark Energy:*', 'ORG'), ('about 68%', 'PERCENT'), ('Challenges and Ongoing Research:*', 'ORG'), ('Developing Models:**  Developing', 'WORK_OF_ART'), ('years', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE33" t="n">
+      <c r="AG33" t="n">
         <v>55.60174441337585</v>
       </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
       <c r="AH33" t="n">
         <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
       </c>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
       <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="n">
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="n">
         <v>33</v>
       </c>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr">
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB33" t="n">
+        <v>0.06569940476190478</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0.5388392857142855</v>
       </c>
       <c r="BD33" t="n">
         <v>3399</v>
@@ -6187,71 +6439,79 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>0.5194819438157791</v>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>-0.122647263109684</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.3246379494667053</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.09255068749189377</v>
+      </c>
+      <c r="AF34" t="inlineStr">
         <is>
           <t>[('## Challenges and', 'MONEY'), ('Developing Artificial General Intelligence', 'ORG'), ('Artificial General Intelligence', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('Data Requirements:*', 'ORG'), ('AGI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Personalized Learning &amp; Healthcare', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Focus on Ethical Development:*', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE34" t="n">
+      <c r="AG34" t="n">
         <v>62.8207323551178</v>
       </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
       <c r="AH34" t="n">
         <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
       <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="n">
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="n">
         <v>34</v>
       </c>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr">
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB34" t="n">
+        <v>0.06515692640692641</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.6010538419913419</v>
       </c>
       <c r="BD34" t="n">
         <v>4243</v>
@@ -6350,71 +6610,79 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>0.6348702210602938</v>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>-0.08452124893665314</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.3336604237556458</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.1173747926950455</v>
+      </c>
+      <c r="AF35" t="inlineStr">
         <is>
           <t>[('## Neuroplasticity', 'MONEY'), ('decades', 'DATE'), ('1', 'CARDINAL'), ('Learning &amp; Memory:*', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Brain Injury Recovery:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE35" t="n">
+      <c r="AG35" t="n">
         <v>57.48736119270325</v>
       </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
       <c r="AH35" t="n">
         <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
       <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="n">
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="n">
         <v>35</v>
       </c>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr">
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB35" t="n">
+        <v>0.1030815972222222</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0.5241446921134422</v>
       </c>
       <c r="BD35" t="n">
         <v>3382</v>
@@ -6513,71 +6781,79 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0.271486044201327</v>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>-0.3370234072208405</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.02133311703801155</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.1626646369695663</v>
+      </c>
+      <c r="AF36" t="inlineStr">
         <is>
           <t>[('7000', 'DATE'), ('64', 'CARDINAL'), ('128', 'CARDINAL'), ('192', 'CARDINAL'), ('GB', 'GPE'), ('3200', 'CARDINAL'), ('8', 'CARDINAL'), ('Redundant Power Supply and Fan Modules', 'WORK_OF_ART'), ('2x 10GbE', 'MONEY'), ('4x 2.5GbE Network Interfaces', 'QUANTITY'), ('5.0', 'CARDINAL'), ('Ethernet', 'PERSON'), ('Optional 10GbE Optical', 'ORG'), ('AI', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE36" t="n">
+      <c r="AG36" t="n">
         <v>156.4974000453949</v>
       </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
       <c r="AI36" t="n">
         <v>0</v>
       </c>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
       <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="n">
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="n">
         <v>36</v>
       </c>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr">
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB36" t="n">
+        <v>0.08233333333333334</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.4565555555555555</v>
       </c>
       <c r="BD36" t="n">
         <v>1272</v>
@@ -6667,71 +6943,79 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>0.5971067566462644</v>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>-0.05174286663532257</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.4995935559272766</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.2104915976524353</v>
+      </c>
+      <c r="AF37" t="inlineStr">
         <is>
           <t>[('Indian-American', 'NORP'), ('AngelList', 'ORG'), ('Investor &amp; Founder:*', 'ORG'), ('Uber, Airbnb', 'ORG'), ('Stripe', 'PRODUCT'), ('Reddit', 'NORP'), ('Author &amp; Speaker:**', 'ORG'), ('Mastering Bitcoin', 'WORK_OF_ART'), ('Reply All', 'WORK_OF_ART'), ('Key Aspects', 'ORG'), ('The Importance of Bitcoin:**', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE37" t="n">
+      <c r="AG37" t="n">
         <v>43.1514458656311</v>
       </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
       <c r="AH37" t="n">
         <v>0</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
       </c>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="n">
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="n">
         <v>38</v>
       </c>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr">
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr"/>
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB37" t="n">
+        <v>0.1677083333333333</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.6427083333333333</v>
       </c>
       <c r="BD37" t="n">
         <v>1791</v>
@@ -6837,71 +7121,79 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>0.7807317342128181</v>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>0.07116616517305374</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0839373767375946</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.07904259115457535</v>
+      </c>
+      <c r="AF38" t="inlineStr">
         <is>
           <t>[('## Chapter 1', 'MONEY'), ('The Echo Chamber', 'ORG'), ('Elena', 'ORG'), ('Earth', 'LOC'), ('Collective', 'PERSON'), ('Elena', 'ORG'), ('one', 'CARDINAL'), ('Exodus', 'PRODUCT'), ('Earth', 'LOC'), ('Earth', 'LOC'), ('Three', 'CARDINAL'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('years', 'DATE'), ('one', 'CARDINAL'), ('The Pioneers', 'WORK_OF_ART'), ('Earth', 'LOC'), ('Guardians', 'NORP'), ('two feet', 'QUANTITY'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('Elena', 'ORG'), ('first', 'ORDINAL'), ('Elena', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE38" t="n">
+      <c r="AG38" t="n">
         <v>78.35348081588745</v>
       </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="n">
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="n">
         <v>39</v>
       </c>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr">
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB38" t="n">
+        <v>0.05745132484262919</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.5577378338247905</v>
       </c>
       <c r="BD38" t="n">
         <v>4050</v>
@@ -6999,71 +7291,79 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>0.4394119769644053</v>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>-0.27629354596138</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.1817364990711212</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-0.05627918615937233</v>
+      </c>
+      <c r="AF39" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('P - Positive Changes:*', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('SPIRE', 'ORG'), ('today', 'DATE'), ('daily', 'DATE'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('SPIRE', 'ORG'), ('SPIRE', 'ORG'), ('daily', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE39" t="n">
+      <c r="AG39" t="n">
         <v>51.07530093193054</v>
       </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
       </c>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
       <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="n">
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="n">
         <v>40</v>
       </c>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr">
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB39" t="n">
+        <v>0.2601479915433405</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.4190081881942347</v>
       </c>
       <c r="BD39" t="n">
         <v>3121</v>
@@ -7161,71 +7461,79 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>0.4337651999172828</v>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>-0.2129784822463989</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.2439081519842148</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.006550095044076443</v>
+      </c>
+      <c r="AF40" t="inlineStr">
         <is>
           <t>[('Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Foshan', 'GPE'), ('Guangdong province', 'GPE'), ('China', 'GPE'), ('the 18th century', 'DATE'), ('Yim Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Internal Energy Cultivation', 'ORG'), ('Chinese', 'NORP'), ('Hollywood', 'GPE'), ('Popularized Wing Chun', 'PERSON'), ('West', 'LOC'), ("Bruce Lee's", 'PERSON'), ('Jeet Kune', 'EVENT'), ('The Grandmaster', 'WORK_OF_ART'), ('millions', 'CARDINAL'), ('Wing Chun', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE40" t="n">
+      <c r="AG40" t="n">
         <v>35.12794494628906</v>
       </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
       <c r="AH40" t="n">
         <v>0</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
       <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="n">
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="n">
         <v>41</v>
       </c>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr">
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB40" t="n">
+        <v>0.09359567901234568</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.3099426807760141</v>
       </c>
       <c r="BD40" t="n">
         <v>2244</v>
@@ -7322,71 +7630,79 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>0.6194039868350554</v>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>-0.12920081615448</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.3752782046794891</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1119163185358047</v>
+      </c>
+      <c r="AF41" t="inlineStr">
         <is>
           <t>[('Morihei Ueshiba', 'PERSON'), ('1904-1969', 'DATE'), ('Japanese', 'NORP'), ('Aikido', 'GPE'), ('Aikido', 'PERSON'), ('today', 'DATE'), ('Aikido', 'PERSON'), ('the early 20th century', 'DATE'), ('Japanese', 'NORP'), ('Ueshiba', 'ORG'), ('Aikido', 'NORP'), ('Aikido', 'PERSON'), ('Ueshiba', 'ORG'), ('Oshogaki', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido', 'GPE'), ('Ueshiba', 'ORG'), ('Martial Arts:*', 'ORG'), ('Aikido', 'PERSON'), ('Health &amp; Self-Improvement:*', 'ORG'), ('Ueshiba', 'ORG'), ('Morihei Ueshiba', 'PERSON'), ('Aikido', 'PERSON'), ('the Aikikai Hombu Dojo', 'ORG'), ('Tokyo', 'GPE'), ('Articles', 'PERSON'), ('Ueshiba', 'ORG'), ('The Art of Aikido', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido: The Way of Peace', 'WORK_OF_ART'), ("Morihei Ueshiba's", 'PERSON'), ('Aikido', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE41" t="n">
+      <c r="AG41" t="n">
         <v>41.54534721374512</v>
       </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
       <c r="AH41" t="n">
         <v>0</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
       </c>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="n">
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="n">
         <v>42</v>
       </c>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr">
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB41" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.3676666666666668</v>
       </c>
       <c r="BD41" t="n">
         <v>2554</v>
@@ -7477,71 +7793,79 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>0.5899586712775844</v>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>-0.1378966718912125</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.3789852261543274</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.1087943688035011</v>
+      </c>
+      <c r="AF42" t="inlineStr">
         <is>
           <t>[('Miyamoto Musashi', 'PERSON'), ('1584-1645', 'DATE'), ('Japanese', 'NORP'), ('one', 'CARDINAL'), ('Musashi', 'PERSON'), ('Two', 'CARDINAL'), ('two', 'CARDINAL'), ('The Way of the Sword', 'WORK_OF_ART'), ('The Art of Disappearances', 'WORK_OF_ART'), ('Legendary Battles:*', 'PERSON'), ('Musashi', 'PERSON'), ('Sasaki Kojiro', 'GPE'), ('Musashi', 'PERSON'), ('Literary Legacy', 'PERSON'), ('The Book of Five Rings:*', 'WORK_OF_ART'), ('Musashi', 'PERSON'), ('the centuries', 'DATE'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE42" t="n">
+      <c r="AG42" t="n">
         <v>30.71544909477234</v>
       </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
       <c r="AH42" t="n">
         <v>0</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
       </c>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
       <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="n">
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="n">
         <v>43</v>
       </c>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr">
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB42" t="n">
+        <v>0.3157142857142857</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0.5314285714285715</v>
       </c>
       <c r="BD42" t="n">
         <v>1773</v>
@@ -7636,71 +7960,79 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="n">
+        <v>0.6490503284205824</v>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>-0.03237369656562805</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.3179242610931396</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.138144239783287</v>
+      </c>
+      <c r="AF43" t="inlineStr">
         <is>
           <t>[('The Book of Five Rings', 'WORK_OF_ART'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('the 17th century', 'DATE'), ('five', 'CARDINAL'), ('Samurai', 'PERSON'), ('Musashi', 'PERSON'), ('first', 'ORDINAL'), ('The Book of Five Rings', 'WORK_OF_ART'), ('between 1645-1649', 'DATE'), ('Musashi', 'PERSON'), ('Edo', 'ORG'), ('The "Book of Five Rings', 'WORK_OF_ART'), ('The Book of Five Rings', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AE43" t="n">
+      <c r="AG43" t="n">
         <v>43.87992238998413</v>
       </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
       <c r="AH43" t="n">
         <v>0</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="n">
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="n">
         <v>44</v>
       </c>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr">
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB43" t="n">
+        <v>0.1791666666666667</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.4482142857142857</v>
       </c>
       <c r="BD43" t="n">
         <v>2619</v>
@@ -7800,71 +8132,79 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>0.5255544795116468</v>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>-0.1783471703529358</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.4258473515510559</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.1071754768490791</v>
+      </c>
+      <c r="AF44" t="inlineStr">
         <is>
           <t>[('Society &amp; Culture:*', 'ORG'), ('Redefined Art &amp; Creativity:*', 'ORG'), ('New Social Structures:*', 'ORG'), ('Challenges &amp; Potential Solutions:*', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE44" t="n">
+      <c r="AG44" t="n">
         <v>44.28774833679199</v>
       </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
       <c r="AH44" t="n">
         <v>0</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
       <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="n">
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="n">
         <v>45</v>
       </c>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr">
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB44" t="n">
+        <v>0.09726306302393257</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.4810902865250693</v>
       </c>
       <c r="BD44" t="n">
         <v>2666</v>
@@ -7962,71 +8302,79 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="n">
+        <v>0.4688677697212582</v>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>-0.2584189474582672</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.3546854257583618</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.03086564876139164</v>
+      </c>
+      <c r="AF45" t="inlineStr">
         <is>
           <t>[('ActivityPub', 'ORG'), ('Twitter', 'PERSON'), ('Fediverse', 'PERSON'), ('Fediverse', 'PERSON'), ('Reddit', 'NORP'), ('Discord', 'GPE'), ('Mastodon', 'GPE'), ('Mastodon', 'PERSON'), ('Twitter', 'PERSON'), ('YouTube', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE45" t="n">
+      <c r="AG45" t="n">
         <v>41.97327995300293</v>
       </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
       <c r="AH45" t="n">
         <v>0</v>
       </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="n">
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="n">
         <v>46</v>
       </c>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr">
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
-      <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB45" t="n">
+        <v>0.05786340852130328</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.3483395989974938</v>
       </c>
       <c r="BD45" t="n">
         <v>2424</v>
@@ -8121,71 +8469,79 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="n">
+        <v>0.4872128889080313</v>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>-0.127874955534935</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.346197098493576</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.09949808567762375</v>
+      </c>
+      <c r="AF46" t="inlineStr">
         <is>
           <t>[('Walden', 'WORK_OF_ART'), ('Henry David Thoreau', 'PERSON'), ('1', 'CARDINAL'), ('Simplicity &amp; Self-Reliance:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden Pond', 'FAC'), ('two years', 'DATE'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Walden', 'WORK_OF_ART'), ('Freedom &amp; Conformity:*', 'ORG'), ('4', 'CARDINAL'), ('Reflection on Society &amp; Technology:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden', 'GPE'), ('today', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE46" t="n">
+      <c r="AG46" t="n">
         <v>47.14622807502747</v>
       </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
       <c r="AH46" t="n">
         <v>0</v>
       </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="n">
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="n">
         <v>47</v>
       </c>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr">
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
       <c r="AY46" t="inlineStr"/>
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
-      <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB46" t="n">
+        <v>0.1287101787101787</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0.3834249084249085</v>
       </c>
       <c r="BD46" t="n">
         <v>2687</v>
@@ -8303,71 +8659,79 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>0.4644349336300609</v>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>-0.1191203817725182</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.1722757965326309</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.02389458566904068</v>
+      </c>
+      <c r="AF47" t="inlineStr">
         <is>
           <t>[('weekly', 'DATE'), ('Week 1 - Focus', 'DATE'), ('Legs &amp; Core', 'ORG'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('30 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('30 seconds', 'TIME'), ('Week 2 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('45 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('10-12', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 3 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-10', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('Romanian Deadlifts', 'PERSON'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 4 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('30-45 minutes', 'TIME'), ('Include', 'ORG'), ('Russian', 'NORP'), ('5 minutes', 'TIME'), ('each week', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE47" t="n">
+      <c r="AG47" t="n">
         <v>81.08618760108948</v>
       </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
       <c r="AH47" t="n">
         <v>0</v>
       </c>
       <c r="AI47" t="n">
         <v>0</v>
       </c>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="n">
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="n">
         <v>48</v>
       </c>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr">
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
-      <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB47" t="n">
+        <v>0.2815177638453502</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.6118120863810519</v>
       </c>
       <c r="BD47" t="n">
         <v>3456</v>
@@ -8469,71 +8833,79 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="n">
+        <v>0.5711879327373028</v>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>-0.1572923809289932</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.2509928941726685</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.04005669057369232</v>
+      </c>
+      <c r="AF48" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Model Focus:*', 'PERSON'), ('Gmail', 'PERSON'), ('Amazon', 'ORG'), ('3', 'CARDINAL'), ('Complex Data Structures:*', 'ORG'), ('jargon', 'ORG'), ('Data:*', 'ORG'), ('4', 'CARDINAL'), ('Competition &amp; Market Dynamics:*', 'ORG'), ('Competitive Advantage:*', 'ORG'), ('5', 'CARDINAL'), ('Balancing Privacy &amp; Innovation:*', 'ORG'), ('Paramount', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE48" t="n">
+      <c r="AG48" t="n">
         <v>61.49904298782349</v>
       </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
       <c r="AH48" t="n">
         <v>0</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
       <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="n">
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="n">
         <v>49</v>
       </c>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr">
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
       <c r="AY48" t="inlineStr"/>
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
-      <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB48" t="n">
+        <v>0.1486267006802721</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.4966751700680272</v>
       </c>
       <c r="BD48" t="n">
         <v>3883</v>
@@ -8621,71 +8993,79 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>0.5839622441942823</v>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>-0.1165967360138893</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.000178277085069567</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.05718504637479782</v>
+      </c>
+      <c r="AF49" t="inlineStr">
         <is>
           <t>[('## Fight Club', 'MONEY'), ('Chapter 1 - A New Type of Echo', 'LAW'), ('Tyler', 'PERSON'), ('Tyler', 'PERSON'), ('a thousand', 'CARDINAL'), ('Tyler', 'PERSON'), ('night', 'TIME'), ('Tyler', 'PERSON'), ('Tyler', 'ORG'), ('Tyler', 'ORG')]</t>
         </is>
       </c>
-      <c r="AE49" t="n">
+      <c r="AG49" t="n">
         <v>54.21773481369019</v>
       </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
       <c r="AH49" t="n">
         <v>0</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="n">
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="n">
         <v>50</v>
       </c>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr">
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
       <c r="AY49" t="inlineStr"/>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
-      <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB49" t="n">
+        <v>-0.0131950456950457</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.5015500240500241</v>
       </c>
       <c r="BD49" t="n">
         <v>2876</v>
@@ -8770,71 +9150,79 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>0.3279764895210033</v>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>-0.4606024324893951</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.07491493225097656</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.2736440300941467</v>
+      </c>
+      <c r="AF50" t="inlineStr">
         <is>
           <t>[('a clear day', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE50" t="n">
+      <c r="AG50" t="n">
         <v>20.15048408508301</v>
       </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
       <c r="AH50" t="n">
         <v>0</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
       </c>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
       <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="n">
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="n">
         <v>51</v>
       </c>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr">
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr"/>
-      <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
-      <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB50" t="n">
+        <v>0.1227678571428571</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="BD50" t="n">
         <v>506</v>
@@ -8912,71 +9300,79 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="n">
+        <v>0.1778423610908229</v>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>-0.1637458205223083</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.2895099520683289</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.05415526777505875</v>
+      </c>
+      <c r="AF51" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('December 25th', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE51" t="n">
+      <c r="AG51" t="n">
         <v>23.97223591804504</v>
       </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
       <c r="AH51" t="n">
         <v>0</v>
       </c>
       <c r="AI51" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
       <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="n">
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="n">
         <v>52</v>
       </c>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr">
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB51" t="n">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.775</v>
       </c>
       <c r="BD51" t="n">
         <v>154</v>
@@ -9054,68 +9450,80 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="n">
+        <v>0.5422173768216975</v>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>0.5414574146270752</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.6815154552459717</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.6112378835678101</v>
+      </c>
+      <c r="AF52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AE52" t="n">
+      <c r="AG52" t="n">
         <v>12.93182849884033</v>
       </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
       <c r="AH52" t="n">
         <v>0</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
       </c>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="n">
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="n">
         <v>53</v>
       </c>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr">
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="inlineStr"/>
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="inlineStr"/>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.1333333333333333</v>
+      </c>
       <c r="BD52" t="n">
         <v>71</v>
       </c>
@@ -9192,71 +9600,79 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="n">
+        <v>0.2307679296112307</v>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>-0.3910104632377625</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.3683236241340637</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-0.03891173750162125</v>
+      </c>
+      <c r="AF53" t="inlineStr">
         <is>
           <t>[('Mount Everest', 'LOC'), ('8,848.86 meters', 'QUANTITY'), ('29,032.6 feet', 'QUANTITY')]</t>
         </is>
       </c>
-      <c r="AE53" t="n">
+      <c r="AG53" t="n">
         <v>13.47611379623413</v>
       </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
       <c r="AH53" t="n">
         <v>0</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
       </c>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="n">
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="n">
         <v>54</v>
       </c>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr">
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
-      <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
       </c>
       <c r="BD53" t="n">
         <v>101</v>
@@ -9334,71 +9750,79 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="n">
+        <v>0.08631140209789417</v>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>-0.08317028731107712</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.1450195610523224</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.02988739125430584</v>
+      </c>
+      <c r="AF54" t="inlineStr">
         <is>
           <t>[('100 degrees Celsius', 'QUANTITY'), ('212 degrees', 'QUANTITY'), ('Fahrenheit', 'WORK_OF_ART')]</t>
         </is>
       </c>
-      <c r="AE54" t="n">
+      <c r="AG54" t="n">
         <v>10.59204339981079</v>
       </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
       <c r="AH54" t="n">
         <v>0</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="n">
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="n">
         <v>55</v>
       </c>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr">
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="inlineStr"/>
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB54" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.3796296296296296</v>
       </c>
       <c r="BD54" t="n">
         <v>197</v>
@@ -9477,68 +9901,80 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>-0.1768083572387695</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.2397228926420212</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.02432085201144218</v>
+      </c>
+      <c r="AF55" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE55" t="n">
+      <c r="AG55" t="n">
         <v>11.29056572914124</v>
       </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
       <c r="AH55" t="n">
         <v>0</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
       </c>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
       <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="n">
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="n">
         <v>56</v>
       </c>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr">
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT55" t="inlineStr"/>
-      <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="inlineStr"/>
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr"/>
-      <c r="BB55" t="inlineStr"/>
-      <c r="BC55" t="inlineStr"/>
+      <c r="BB55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.45</v>
+      </c>
       <c r="BD55" t="n">
         <v>119</v>
       </c>
@@ -9615,71 +10051,79 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="n">
+        <v>0.1718959704551331</v>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>-0.3067499101161957</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.1023713648319244</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.1090334579348564</v>
+      </c>
+      <c r="AF56" t="inlineStr">
         <is>
           <t>[('Harper Lee', 'PERSON'), ('1926', 'DATE'), ('New Orleans', 'GPE'), ('Louisiana', 'GPE'), ('American', 'NORP'), ('Lee', 'PERSON'), ('Mockingbird', 'GPE'), ('Lee', 'PERSON')]</t>
         </is>
       </c>
-      <c r="AE56" t="n">
+      <c r="AG56" t="n">
         <v>16.28455948829651</v>
       </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
       <c r="AH56" t="n">
         <v>0</v>
       </c>
       <c r="AI56" t="n">
         <v>0</v>
       </c>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
       <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="n">
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="n">
         <v>57</v>
       </c>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr">
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="inlineStr"/>
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
-      <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB56" t="n">
+        <v>0.1339393939393939</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.2042424242424243</v>
       </c>
       <c r="BD56" t="n">
         <v>390</v>
@@ -9758,71 +10202,79 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>-0.2439294010400772</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.114407904446125</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-0.06960292905569077</v>
+      </c>
+      <c r="AF57" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('3', 'CARDINAL')]</t>
         </is>
       </c>
-      <c r="AE57" t="n">
+      <c r="AG57" t="n">
         <v>4.63580060005188</v>
       </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
         <v>0</v>
       </c>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
       <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="n">
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="n">
         <v>58</v>
       </c>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr">
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
       </c>
       <c r="BD57" t="n">
         <v>53</v>
@@ -9900,71 +10352,79 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="n">
+        <v>0.2307679296112307</v>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>-0.1001063734292984</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.2387317568063736</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.0651061162352562</v>
+      </c>
+      <c r="AF58" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('Christians', 'NORP'), ('December 25th to January 1st', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE58" t="n">
+      <c r="AG58" t="n">
         <v>14.12414336204529</v>
       </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
       <c r="AH58" t="n">
         <v>0</v>
       </c>
       <c r="AI58" t="n">
         <v>0</v>
       </c>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
       <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="n">
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="n">
         <v>59</v>
       </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr">
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB58" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.75</v>
       </c>
       <c r="BD58" t="n">
         <v>115</v>
@@ -10042,71 +10502,79 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="n">
+        <v>0.6280886237721275</v>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>0.6443110108375549</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.8022511005401611</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.7226333022117615</v>
+      </c>
+      <c r="AF59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="AE59" t="n">
+      <c r="AG59" t="n">
         <v>5.235190391540527</v>
       </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
       <c r="AH59" t="n">
         <v>0</v>
       </c>
       <c r="AI59" t="n">
         <v>0</v>
       </c>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
       <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="n">
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="n">
         <v>60</v>
       </c>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr">
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT59" t="inlineStr"/>
-      <c r="AU59" t="inlineStr"/>
       <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="inlineStr"/>
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
-      <c r="BB59" t="inlineStr"/>
-      <c r="BC59" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+      <c r="BB59" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.4222222222222223</v>
       </c>
       <c r="BD59" t="n">
         <v>85</v>
@@ -10185,68 +10653,80 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="n">
+        <v>0.3032160644503863</v>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>-0.1826222240924835</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.05433524399995804</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.1175111085176468</v>
+      </c>
+      <c r="AF60" t="inlineStr">
         <is>
           <t>[('France', 'GPE'), ('Paris', 'GPE')]</t>
         </is>
       </c>
-      <c r="AE60" t="n">
+      <c r="AG60" t="n">
         <v>3.900015830993652</v>
       </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
       <c r="AH60" t="n">
         <v>0</v>
       </c>
       <c r="AI60" t="n">
         <v>0</v>
       </c>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
       <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="n">
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="n">
         <v>61</v>
       </c>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr">
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AU60" t="inlineStr"/>
       <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
-      <c r="BB60" t="inlineStr"/>
-      <c r="BC60" t="inlineStr"/>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
       <c r="BD60" t="n">
         <v>33</v>
       </c>
@@ -10323,68 +10803,80 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>-0.2551573812961578</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>-0.06928646564483643</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>-0.1621356010437012</v>
+      </c>
+      <c r="AF61" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE'), ('every 7 days', 'DATE')]</t>
         </is>
       </c>
-      <c r="AE61" t="n">
+      <c r="AG61" t="n">
         <v>4.950026988983154</v>
       </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
       <c r="AH61" t="n">
         <v>0</v>
       </c>
       <c r="AI61" t="n">
         <v>0</v>
       </c>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
       <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="n">
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="n">
         <v>62</v>
       </c>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr">
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr"/>
       <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="inlineStr"/>
       <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="inlineStr"/>
-      <c r="BC61" t="inlineStr"/>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
       <c r="BD61" t="n">
         <v>79</v>
       </c>
@@ -10461,68 +10953,80 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="n">
+        <v>0.1194063890824266</v>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>-0.4715230166912079</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-0.1028304994106293</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-0.2923757135868073</v>
+      </c>
+      <c r="AF62" t="inlineStr">
         <is>
           <t>[('Jupiter', 'LOC'), ('318', 'CARDINAL'), ('Earth', 'LOC'), ('143,892 kilometers', 'QUANTITY'), ('1.431 billion cubic kilometers', 'QUANTITY')]</t>
         </is>
       </c>
-      <c r="AE62" t="n">
+      <c r="AG62" t="n">
         <v>8.451048374176025</v>
       </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
       <c r="AH62" t="n">
         <v>0</v>
       </c>
       <c r="AI62" t="n">
         <v>0</v>
       </c>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
       <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>assistant</t>
-        </is>
-      </c>
+      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr">
         <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr">
+        <is>
           <t>gemma2:2b</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="n">
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="n">
         <v>64</v>
       </c>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr">
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr">
         <is>
           <t>exported</t>
         </is>
       </c>
-      <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr"/>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
-      <c r="BB62" t="inlineStr"/>
-      <c r="BC62" t="inlineStr"/>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
       <c r="BD62" t="n">
         <v>167</v>
       </c>

--- a/prompt_responses.xlsx
+++ b/prompt_responses.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Token_Match</t>
+          <t>Token_Matching</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -859,21 +859,19 @@
       <c r="V2" t="n">
         <v>0.6901205265470962</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9031684398651123</v>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>-0.1403067708015442</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.232819601893425</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.04083859175443649</v>
-      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
           <t>[('## Quantum Computing', 'MONEY'), ('quantum', 'ORG'), ('2024', 'DATE'), ('1', 'CARDINAL'), ('Quantum', 'ORG'), ('quantum', 'ORG'), ('Rigetti', 'LOC'), ('IBM', 'ORG'), ('2', 'CARDINAL'), ('Quantum', 'ORG'), ('Shor', 'PERSON'), ('Grover', 'PERSON'), ('3', 'CARDINAL'), ('New Horizons', 'ORG'), ('Quantum', 'ORG'), ('Quantum', 'ORG'), ('4', 'CARDINAL'), ('quantum', 'ORG'), ('RSA &amp; ECC:*', 'ORG'), ('Quantum', 'ORG'), ('RSA &amp; ECC', 'ORG'), ('PQC', 'ORG'), ('quantum', 'ORG'), ('Quantum', 'ORG'), ('Key Takeaways', 'PERSON'), ('PQC', 'ORG'), ('quantum technologies', 'ORG'), ('PQC', 'ORG'), ('2024', 'DATE'), ('quantum', 'ORG')]</t>
@@ -1020,21 +1018,19 @@
       <c r="V3" t="n">
         <v>0.578351599562234</v>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0.2620689655172414</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9216973781585693</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>0.001959769520908594</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.267485648393631</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.1326631754636765</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
           <t>[('2021', 'DATE'), ('2024', 'DATE'), ('the IPCC AR6 Report', 'ORG'), ('2021', 'DATE'), ('1.5', 'CARDINAL'), ('1.5', 'CARDINAL'), ('Arctic', 'LOC'), ('1.5', 'CARDINAL'), ('IPCC', 'ORG'), ('IPCC', 'ORG')]</t>
@@ -1191,21 +1187,19 @@
       <c r="V4" t="n">
         <v>0.7375663059874079</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.2396694214876033</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9302768707275391</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>0.01116325799375772</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.4220069646835327</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.2096892148256302</v>
-      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Artemis', 'ORG'), ('NASA', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('November 2022', 'DATE'), ('Moon', 'PERSON'), ('the Lunar Gateway', 'FAC'), ('first', 'ORDINAL'), ('Gateway', 'PERSON'), ('this year', 'DATE'), ('Starship', 'PERSON'), ('NASA', 'ORG'), ('Space Launch System', 'ORG'), ('Orion', 'ORG'), ('Lockheed Martin', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('first', 'ORDINAL'), ('NASA', 'ORG'), ('Lunar Reconnaissance Orbiter', 'ORG'), ('LRO', 'ORG'), ('Artemis II Mission:*', 'ORG'), ('2024', 'DATE'), ('Moon', 'PERSON'), ('Lunar Gateway Operations:*', 'ORG'), ('first', 'ORDINAL'), ('the Lunar Gateway', 'FAC'), ('the early 2030s', 'DATE'), ('Artemis', 'ORG'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Earth', 'LOC'), ('Moon', 'PERSON'), ('ISRU', 'ORG'), ('Mars', 'LOC'), ('Moon', 'PERSON'), ('Artemis', 'ORG'), ('Moon', 'PERSON')]</t>
@@ -1367,21 +1361,19 @@
       <c r="V5" t="n">
         <v>0.5249437664303414</v>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.2015209125475285</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9168593883514404</v>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>-0.1377714425325394</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.2859005331993103</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.06663424521684647</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
           <t>[('CRISPR', 'PERSON'), ('1', 'CARDINAL'), ('CRISPR', 'PERSON'), ('2', 'CARDINAL'), ('Cancer Therapy:*', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('Gene Silencing', 'PERSON'), ('CRISPR', 'GPE'), ('CFTR', 'ORG'), ('CRISPR technology holds immense', 'ORG'), ('Antimicrobial Resistance:*', 'ORG'), ('Methicillin', 'PERSON'), ('Staphylococcus aureus', 'PERSON'), ('3', 'CARDINAL'), ('CRISPR', 'PERSON'), ('Gene Therapy:*', 'PERSON'), ('4', 'CARDINAL'), ('Challenges and Future Directions', 'ORG'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'GPE'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('CRISPR', 'PERSON'), ('PubMed', 'ORG')]</t>
@@ -1537,21 +1529,19 @@
       <c r="V6" t="n">
         <v>0.4843318852744758</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0.1545893719806763</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8662116527557373</v>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>-0.2300157397985458</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.193474143743515</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>-0.02571054361760616</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
           <t>[('2024', 'DATE'), ('Nobel Prize in Physics', 'WORK_OF_ART'), ('Potential Candidates &amp; Research Areas:*', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Fundamental Physics Research:*', 'ORG'), ('the Higgs Boson', 'ORG'), ('Particle Physics:*', 'ORG'), ('Groundbreaking Research:*', 'ORG'), ('Award', 'PERSON'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('3', 'CARDINAL'), ('Neutrino Physics:*', 'ORG'), ('4', 'CARDINAL'), ('Dark Matter &amp; Dark Energy:*', 'ORG'), ('Nobel Prize', 'WORK_OF_ART'), ('The Nobel Prize in Physics', 'WORK_OF_ART'), ('the Swedish Royal Academy of Sciences', 'ORG'), ('Nobelprize.org', 'ORG'), ('the Nobel Prizes', 'WORK_OF_ART'), ('Physics News Outlets:*', 'ORG'), ('Physics', 'ORG')]</t>
@@ -1704,21 +1694,19 @@
       <c r="V7" t="n">
         <v>0.5733480679766433</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>0.1981566820276498</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9003260135650635</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="n">
-        <v>-0.09463740885257721</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.2549121677875519</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.07555900514125824</v>
-      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('The year 2024', 'DATE'), ('one', 'CARDINAL'), ('International Relations:*', 'ORG'), ('AI', 'ORG'), ('2024', 'DATE')]</t>
@@ -1877,21 +1865,19 @@
       <c r="V8" t="n">
         <v>0.6749620551895958</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>0.2101694915254237</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.9374107718467712</v>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>-0.04173212498426437</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.3762732446193695</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.1600854992866516</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
           <t>[('2024', 'CARDINAL'), ('The coming year', 'DATE'), ('Global Recovery &amp; Rebound', 'ORG'), ('2024', 'DATE'), ('COVID-19', 'ORG'), ('Structural Reforms &amp; Investment:*', 'ORG'), ('Demographic Shifts &amp; Emerging Consumer Markets:*', 'ORG'), ('Geopolitical Uncertainty &amp; Conflict:*', 'ORG'), ('Russia', 'GPE'), ('Fluctuations &amp; Exchange Rate Risks:*', 'ORG'), ('Sustainability &amp; Financial Fragility:*', 'ORG'), ('Asia', 'LOC'), ('Countries', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE'), ('India', 'GPE'), ('China', 'GPE'), ('Latin America:*', 'LOC'), ('Latin American', 'NORP'), ('recent years', 'DATE'), ('Africa', 'LOC'), ('Africa', 'LOC'), ('India', 'GPE'), ('China', 'GPE'), ('2024', 'DATE')]</t>
@@ -2052,21 +2038,19 @@
       <c r="V9" t="n">
         <v>0.6721609056370546</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>0.2256637168141593</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.9123716950416565</v>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>-0.1239426881074905</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.3529394567012787</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.1047068685293198</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
           <t>[('## Fusion Energy', 'MONEY'), ('1.', 'CARDINAL'), ('National Ignition Facility', 'ORG'), ('NIF', 'ORG'), ('Livermore National Laboratory', 'ORG'), ('2023', 'DATE'), ('NIF', 'ORG'), ('Princeton Plasma Physics Laboratory', 'ORG'), ('2', 'CARDINAL'), ('Development of New Technologies:*', 'ORG'), ('Magnetic Confinement Fusion', 'ORG'), ('MCF', 'ORG'), ('Inertial Confinement Fusion', 'ORG'), ('3', 'CARDINAL'), ('Clean &amp; Sustainable:** Fusion', 'ORG'), ('Challenges &amp; Road Ahead:*', 'ORG'), ('Safety &amp; waste management:*', 'ORG')]</t>
@@ -2243,21 +2227,19 @@
       <c r="V10" t="n">
         <v>0.5595763689038059</v>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>0.2408163265306122</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.9078465700149536</v>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
-        <v>-0.1107913628220558</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.298872321844101</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.08719215542078018</v>
-      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('FeFETs', 'WORK_OF_ART'), ('A Deep Dive\n\nFerroelectric', 'WORK_OF_ART'), ('Key Features &amp; Advantages:*', 'ORG'), ('Feature', 'PRODUCT'), ('Traditional Transistors', 'ORG'), ('FeFETs', 'PERSON'), ('Slow', 'PERSON'), ('Fast', 'PERSON'), ('Power Consumption', 'PRODUCT'), ('Moderate', 'PERSON'), ('Memory', 'PRODUCT'), ('Limited', 'ORG'), ('Advanced Electronics:*', 'ORG'), ('Analog Circuits &amp; Signal Processing:*', 'ORG'), ('2D Materials', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('FeFET', 'NORP'), ('FeFET', 'GPE'), ('FeFETs', 'PERSON')]</t>
@@ -2411,21 +2393,19 @@
       <c r="V11" t="n">
         <v>0.7460336672406538</v>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>0.2697095435684647</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9268414378166199</v>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
-        <v>-0.07635849714279175</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.3110949099063873</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.1113950535655022</v>
-      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('Modern Warfare', 'ORG'), ('Moral Agency &amp; Responsibility:*', 'ORG'), ('AWS', 'ORG'), ('Taking a Human Life', 'WORK_OF_ART'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Potential Societal Impacts:*', 'ORG'), ('Military Doctrine &amp; Strategy:*', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG'), ('Uneven Access &amp; Disproportionate Impact:*', 'ORG'), ('AWS', 'ORG'), ('International Treaties &amp; Regulations:*', 'ORG'), ('AWS', 'ORG'), ('The United Nations', 'ORG'), ('AWS', 'ORG'), ('AWS', 'ORG')]</t>
@@ -2585,21 +2565,19 @@
       <c r="V12" t="n">
         <v>0.558203544696746</v>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9350690245628357</v>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
-        <v>-0.04088065028190613</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.3579966425895691</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.1521375775337219</v>
-      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
           <t>[('#', 'MONEY'), ('Cons', 'PERSON'), ('the United States', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Hazard', 'PERSON'), ('UBI', 'ORG'), ('Stakeholders', 'NORP'), ('UBI', 'GPE'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('Social Experimentation:*', 'ORG'), ('UBI', 'ORG'), ('UBI', 'ORG'), ('US', 'GPE'), ('UBI', 'ORG'), ('US', 'GPE')]</t>
@@ -2769,21 +2747,19 @@
       <c r="V13" t="n">
         <v>0.7294587161506744</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>0.3484162895927602</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.959218442440033</v>
+      </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>0.162029430270195</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.2753111124038696</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.219320997595787</v>
-      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
           <t>[('US', 'GPE'), ('Massive Energy Demand Surge', 'ORG'), ('Overnight', 'WORK_OF_ART'), ('years', 'DATE'), ('decades', 'DATE'), ('overnight', 'TIME'), ('EV', 'ORG'), ('decade', 'DATE'), ('US', 'GPE'), ('Focus on Public Transportation', 'ORG'), ('metro', 'FAC'), ('overnight', 'TIME'), ('US', 'GPE')]</t>
@@ -2934,21 +2910,19 @@
       <c r="V14" t="n">
         <v>0.6173458898691805</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.9324036240577698</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>-0.03602756932377815</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.3973591029644012</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.172842413187027</v>
-      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
           <t>[('## The River of Consciousness: Stream of', 'MONEY'), ("James Joyce's", 'PERSON'), ('Joyce', 'PERSON'), ('linear', 'ORG'), ('Leopold Bloom', 'PRODUCT'), ('Stephen Dedalus', 'PERSON'), ('Internal Monologues &amp; Dialogue:*', 'ORG'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('Joyce', 'PERSON'), ('post-World War I Europe', 'EVENT'), ("James Joyce's", 'PERSON'), ('today', 'DATE')]</t>
@@ -3100,21 +3074,19 @@
       <c r="V15" t="n">
         <v>0.5959206166252631</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>0.1385281385281385</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.91816246509552</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>-0.06485846638679504</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.3699373304843903</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.1446512490510941</v>
-      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
           <t>[('## Absurdity', 'MONEY'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ("Samuel Beckett's", 'PERSON'), ('Waiting for Godot', 'WORK_OF_ART'), ('post-World War II', 'EVENT'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Reflection of Post-War Existentialism:*', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('World War II', 'EVENT'), ('Trauma', 'PERSON'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('Vladimir', 'PERSON'), ('Estragon', 'ORG'), ('Waiting for Godot', 'WORK_OF_ART'), ('one', 'CARDINAL'), ('Beckett', 'PERSON')]</t>
@@ -3271,21 +3243,19 @@
       <c r="V16" t="n">
         <v>0.7176723901592016</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.8924509286880493</v>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>-0.1431537419557571</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.3008864223957062</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.07055787742137909</v>
-      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
           <t>[('##  ', 'MONEY'), ('A Tale of Two Worlds', 'WORK_OF_ART'), ("Dante Alighieri's", 'PERSON'), ('Purgatorio', 'PERSON'), ('Paradiso', 'PERSON'), ('Divine Comedy', 'PERSON'), ("William Blake's", 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Blake', 'ORG'), ('Feature', 'PRODUCT'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Dante', 'PERSON'), ('Christianity', 'NORP'), ('Language', 'LOC'), ('Christian', 'NORP'), ('Utilizes', 'ORG'), ('Blake', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Virgil', 'PERSON'), ('the Garden of Eden', 'FAC'), ('Dante', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART'), ('Lamb', 'PERSON'), ('Tiger', 'PERSON'), ('Dante', 'PERSON'), ('Divine Comedy', 'PERSON'), ('Blake', 'PERSON'), ('Songs of Innocence', 'WORK_OF_ART')]</t>
@@ -3435,21 +3405,19 @@
       <c r="V17" t="n">
         <v>0.6252830343655603</v>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>0.1728971962616822</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.9353335499763489</v>
+      </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>-0.07709217071533203</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.3197880387306213</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.1150089576840401</v>
-      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
           <t>[('Japanese', 'NORP'), ('Impressionism', 'ORG'), ('Western', 'NORP'), ('Katsushika Hokusai', 'PERSON'), ('Utagawa Hiroshige', 'PERSON'), ('Impressionist', 'NORP'), ('Monet', 'PERSON'), ('Renoir', 'WORK_OF_ART'), ('Impressionist', 'NORP'), ('Capturing Daily Life:*', 'ORG'), ('Impressionism', 'ORG'), ('Cross-Cultural Exchange:*', 'ORG'), ('French', 'NORP'), ('Japanese', 'NORP'), ('Monet', 'PERSON'), ('"Water Lilies" Series', 'WORK_OF_ART'), ('Monet', 'PERSON'), ("Le Déjeuner sur l'herbe", 'WORK_OF_ART'), ('Impressionism', 'ORG'), ('Japanese', 'NORP'), ('Degas', 'PERSON'), ('Impressionism', 'ORG'), ('Impressionist', 'NORP')]</t>
@@ -3607,21 +3575,19 @@
       <c r="V18" t="n">
         <v>0.6316717349348221</v>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>0.1641221374045801</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.9167059659957886</v>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>-0.03703929111361504</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.3263139128684998</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.1395480632781982</v>
-      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
           <t>[('## Atonality', 'MONEY'), ('Arnold Schoenberg', 'PERSON'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Anton Webern', 'PERSON'), ('Alban Berg', 'PERSON'), ('the Intonation of the Sounds:*', 'ORG'), ('Complexity:*', 'ORG'), ('Ordering" Sounds:**', 'WORK_OF_ART'), ('20th-Century', 'DATE'), ('the Musical World:*', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('Schoenberg', 'ORG'), ('Debussy &amp; Modernist Expression:*', 'ORG'), ('Schoenberg', 'ORG'), ('Debussy', 'PERSON'), ('Avant-Garde Compositions:*', 'ORG'), ('Dmitri Shostakovich', 'PERSON'), ('Pierre Boulez', 'PERSON'), ('Karlheinz Stockhausen', 'PERSON'), ('Schoenberg', 'ORG'), ('Schoenberg', 'ORG'), ('20th-century', 'DATE'), ('today', 'DATE'), ('serialist', 'NORP'), ('Schoenberg', 'ORG'), ('Arnold Schoenberg', 'PERSON')]</t>
@@ -3779,21 +3745,19 @@
       <c r="V19" t="n">
         <v>0.5948178587250076</v>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>0.2512315270935961</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.9015582799911499</v>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
-        <v>-0.1450158655643463</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.3007166385650635</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.06946625560522079</v>
-      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
           <t>[('NLP', 'ORG'), ('1', 'CARDINAL'), ('RNN', 'ORG'), ('one', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('GPT', 'ORG'), ('Generative Pre-trained', 'PERSON'), ('Transformer', 'ORG'), ('BERT', 'ORG'), ('4', 'CARDINAL'), ('NLP Beyond Translation:*', 'ORG'), ('Question Answering:*', 'ORG'), ('NLP', 'ORG')]</t>
@@ -3949,21 +3913,19 @@
       <c r="V20" t="n">
         <v>0.6170399831794966</v>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>0.2659574468085106</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.9015295505523682</v>
+      </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>-0.0673651322722435</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.3553996086120605</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.1366341263055801</v>
-      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
           <t>[('## Fine', 'MONEY'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Pre-Trained Model:*', 'PERSON'), ('GPT-3', 'ORG'), ('BERT', 'ORG'), ('2', 'CARDINAL'), ('Adapt', 'FAC'), ('3', 'CARDINAL'), ('Transfer Learning:*', 'FAC'), ('Faster Training Time:*', 'PERSON'), ('BERT', 'ORG'), ('Question Answering:*', 'ORG'), ('GPT-3', 'ORG')]</t>
@@ -4125,21 +4087,19 @@
       <c r="V21" t="n">
         <v>0.5860685973817958</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>0.1672473867595819</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.8878571391105652</v>
+      </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>-0.2001161724328995</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.2434670627117157</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.01336682680994272</v>
-      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
           <t>[('##  Challenges', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('Linguistic Nuances:*', 'ORG'), ('Sarcasm', 'ORG'), ('one', 'CARDINAL'), ('today', 'DATE'), ('summer day', 'DATE'), ('Irony', 'ORG'), ('Sarcasm', 'ORG'), ('2', 'CARDINAL'), ('Complexity of Emotional Expressions:*', 'ORG'), ('Sarcasm', 'ORG'), ('3', 'CARDINAL'), ('Data Limitations &amp; Model Bias:*', 'ORG'), ('Limited Training', 'ORG'), ('Sarcasm', 'ORG'), ('4.', 'CARDINAL'), ('Evolving Communication Styles:*', 'ORG'), ('BERT', 'ORG'), ('XLNet', 'ORG')]</t>
@@ -4305,21 +4265,19 @@
       <c r="V22" t="n">
         <v>0.5949359130294011</v>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>0.1395348837209302</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.8827760219573975</v>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="n">
-        <v>-0.2770205140113831</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.245700478553772</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>-0.02786130085587502</v>
-      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
           <t>[('## Advancements', 'MONEY'), ('1', 'CARDINAL'), ('NLU', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Dialogue Management &amp; Contextualization:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Future of Human-AI Interaction:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('1', 'CARDINAL'), ('Personalization &amp; Empathy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Augmentation &amp; Productivity:*', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('the Human-Machine Gap:*', 'ORG'), ('Challenges &amp; Ethical Considerations:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
@@ -4481,21 +4439,19 @@
       <c r="V23" t="n">
         <v>0.6567690075740434</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>0.2123552123552123</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.9174208641052246</v>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="n">
-        <v>-0.1292581260204315</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.2811882197856903</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.06908448040485382</v>
-      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
           <t>[('AI Systems', 'ORG'), ('1', 'CARDINAL'), ('Data Representation &amp; Bias Mitigation:*', 'ORG'), ('Bias Detection &amp; Correction:*', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Content &amp; Language Understanding:*', 'ORG'), ('Cultural Sensitivity Training:*', 'ORG'), ('3', 'CARDINAL'), ('Ethical Considerations &amp; User Transparency:*', 'ORG'), ('User Consent &amp; Privacy:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Continuous Learning &amp; Improvement:*', 'ORG'), ('Feedback Mechanisms:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('5', 'CARDINAL'), ('Responsible Deployment &amp; Community Engagement:*', 'ORG'), ('Cultural Sensitivity Guidelines:*', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('Challenges &amp; Limitations:*', 'ORG'), ('AI', 'ORG')]</t>
@@ -4652,21 +4608,19 @@
       <c r="V24" t="n">
         <v>0.619339183246679</v>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>0.1991525423728814</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.9059211611747742</v>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="n">
-        <v>-0.1237265467643738</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.3230295777320862</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.0912291556596756</v>
-      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('NLP', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('English', 'LANGUAGE'), ('2', 'CARDINAL'), ('Limited Linguistic Resources:*', 'ORG'), ('NLP', 'ORG'), ('Idiom Variations', 'ORG'), ('Idioms', 'ORG'), ('3', 'CARDINAL'), ('Ambiguous Interpretations &amp; Potential for Miscommunication:*', 'ORG'), ('Humor &amp; Irony:*', 'ORG'), ('4', 'CARDINAL'), ('Bridging Linguistic &amp; Cultural Gaps:*', 'ORG'), ('5', 'CARDINAL'), ('Overcoming Challenges', 'ORG'), ('NLP', 'ORG'), ('Deep Learning &amp; Neural Networks:*', 'ORG'), ('Context-Aware Embeddings:*', 'ORG'), ('NLP', 'ORG')]</t>
@@ -4827,21 +4781,19 @@
       <c r="V25" t="n">
         <v>0.6354650889882819</v>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.8989536166191101</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="n">
-        <v>-0.1492152214050293</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.2865510582923889</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.06071878224611282</v>
-      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
           <t>[('## The Importance of Cultural Competence', 'MONEY'), ('AI Language Models', 'WORK_OF_ART'), ('AI language', 'FAC'), ('1', 'CARDINAL'), ('Bias', 'PERSON'), ('AI', 'ORG'), ('AI', 'ORG'), ('2', 'CARDINAL'), ('Promoting Accurate', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('3', 'CARDINAL'), ('AI', 'ORG'), ('4', 'CARDINAL'), ('Fostering Ethical AI Development:*', 'ORG'), ('AI', 'ORG'), ('AI language', 'FAC'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG')]</t>
@@ -5013,21 +4965,19 @@
       <c r="V26" t="n">
         <v>0.6122325828008451</v>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.8874231576919556</v>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="n">
-        <v>-0.2044266015291214</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.2859277725219727</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.0302589163184166</v>
-      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
           <t>[('##  Algorithm', 'MONEY'), ('1', 'CARDINAL'), ('CPU', 'ORG'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('3', 'CARDINAL'), ('CPU', 'ORG'), ('two', 'CARDINAL'), ('1.5', 'CARDINAL'), ('2', 'CARDINAL'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('first', 'ORDINAL'), ('1', 'CARDINAL'), ('First', 'ORDINAL'), ('FCFS', 'ORG'), ('SJF', 'ORG'), ('2', 'CARDINAL'), ('Monitoring &amp; Adjustment:*', 'ORG'), ('1', 'CARDINAL'), ('Monitoring Execution Times', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Eigen', 'ORG'), ('4', 'CARDINAL'), ('Parallelism &amp; Multithreading:*', 'ORG')]</t>
@@ -5196,21 +5146,19 @@
       <c r="V27" t="n">
         <v>0.6497684914338067</v>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.9279524087905884</v>
+      </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="n">
-        <v>-0.1791880279779434</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.359444797039032</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.07720862329006195</v>
-      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
           <t>[('## Trade', 'MONEY'), ('Privacy &amp; Security', 'ORG'), ('Digital Contact Tracing Systems', 'ORG'), ('Digital', 'ORG'), ('third', 'ORDINAL'), ('Data Minimization:*', 'ORG'), ('Access &amp; Correction:*', 'ORG')]</t>
@@ -5374,21 +5322,19 @@
       <c r="V28" t="n">
         <v>0.6234421775895662</v>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>0.1690647482014389</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8795077800750732</v>
+      </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
-        <v>-0.2263300269842148</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.3212510645389557</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.0339999608695507</v>
-      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
           <t>[('## Mitigating', 'MONEY'), ('I. Prevention &amp; Detection:*', 'ORG'), ('AI', 'ORG'), ('Response &amp; Accountability:*', 'ORG'), ('Collaboration &amp; Trust:*', 'ORG'), ('Ethical Considerations:*', 'ORG'), ('AI:*', 'ORG')]</t>
@@ -5559,21 +5505,19 @@
       <c r="V29" t="n">
         <v>0.585142035207212</v>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>0.1855670103092784</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.8746443390846252</v>
+      </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="n">
-        <v>-0.2683748602867126</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.2484864145517349</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>-0.02182964794337749</v>
-      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
         <is>
           <t>[('## A Sustainable Urban Transportation System', 'MONEY'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Key Components:*', 'ORG'), ('Subway Network:*', 'ORG'), ('metro', 'ORG'), ('BRT', 'ORG'), ('Protected Bike Lanes &amp; Shared Paths:** Extensive', 'ORG'), ('Micro-Transit Service Network:*', 'ORG'), ('last-mile', 'QUANTITY'), ('Smart Technology Integration', 'ORG'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('Universal Access Design:*', 'ORG'), ('5', 'CARDINAL'), ('Continuous Improvement &amp; Evaluation:*', 'ORG')]</t>
@@ -5758,21 +5702,19 @@
       <c r="V30" t="n">
         <v>0.5887346680240991</v>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>0.1213872832369942</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.8185746669769287</v>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="n">
-        <v>-0.4632424712181091</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.1737278252840042</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>-0.1640225499868393</v>
-      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('Data Collection &amp; Preparation:*', 'ORG'), ('Genomics Companies:*', 'ORG'), ('Data Cleaning &amp; Preprocessing:*', 'ORG'), ('-1', 'ORG'), ('1', 'CARDINAL'), ('one', 'CARDINAL'), ('SMOTE', 'PERSON'), ('2', 'CARDINAL'), ('Feature Engineering &amp; Selection:*', 'ORG'), ('Nucleotide Polymorphisms', 'PERSON'), ('Polygenic Risk Score', 'ORG'), ('Lifestyle Data:*', 'ORG'), ('Stress Levels:*', 'ORG'), ('PCA', 'ORG'), ('linear', 'ORG'), ('3', 'CARDINAL'), ('Model Selection &amp; Training:*', 'ORG'), ('Linear Regression', 'ORG'), ('Vector Machines', 'PERSON'), ('Decision Trees', 'PERSON'), ('Random Forests', 'PERSON'), ('Support Vector Classification', 'ORG'), ('Naive Bayes', 'PERSON'), ('K-Nearest Neighbors', 'ORG'), ('XGBoost', 'ORG'), ('LightGBM', 'ORG'), ('4', 'CARDINAL'), ('Model Evaluation &amp; Analysis:*', 'ORG'), ('F1', 'CARDINAL'), ('AUC', 'ORG'), ('5', 'CARDINAL'), ('6', 'CARDINAL'), ('Implementation &amp; Deployment:*', 'ORG'), ('Data Quality is Critical:*', 'ORG'), ('Collaboration &amp; Expertise:*', 'ORG'), ('clinicians', 'NORP'), ('Continuous Improvement:*', 'PERSON')]</t>
@@ -5932,21 +5874,19 @@
       <c r="V31" t="n">
         <v>0.5097694405820163</v>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>0.1680672268907563</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.8996645212173462</v>
+      </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="n">
-        <v>-0.1975468993186951</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.2780659198760986</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.03048140928149223</v>
-      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
           <t>[('quantum entanglement', 'ORG'), ('Quantum Entanglement', 'ORG'), ('two', 'CARDINAL'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('Alice', 'PERSON'), ('Bob', 'PERSON'), ('first', 'ORDINAL'), ('Shared State:*', 'ORG'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Quantum Cryptography:*', 'ORG'), ('two', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Quantum Computing:*', 'ORG'), ('Quantum Algorithms:*', 'PERSON'), ('quantum entanglement', 'ORG'), ('Quantum Technologies:*', 'ORG'), ('quantum', 'ORG'), ('Applications Beyond Cryptography:*', 'PERSON'), ('GPS systems', 'ORG'), ('Nutshell', 'PERSON'), ('Quantum', 'ORG'), ('quantum', 'ORG')]</t>
@@ -6107,21 +6047,19 @@
       <c r="V32" t="n">
         <v>0.660397932999078</v>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>0.2099236641221374</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9180836081504822</v>
+      </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="n">
-        <v>-0.05138982832431793</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.3940970599651337</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.1630093157291412</v>
-      </c>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
           <t>[('CRISPR-Cas9 Gene Editing', 'PERSON'), ('two', 'CARDINAL'), ('1', 'CARDINAL'), ('The Cas9 Enzyme:*', 'ORG'), ('2', 'CARDINAL'), ('Guide RNA', 'ORG'), ('RNA', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Cas9', 'NORP'), ('3', 'CARDINAL'), ('Target Recognition &amp; Cut:*', 'ORG'), ('Cas9', 'NORP'), ('4', 'CARDINAL'), ('Two', 'CARDINAL'), ('HDR', 'ORG'), ('Cas9', 'NORP'), ('5', 'CARDINAL'), ('## Ethical Implications', 'MONEY'), ('CRISPR-Cas9', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Social Inequality:*', 'ORG'), ('4.', 'CARDINAL'), ('CRISPR-Cas9', 'ORG'), ('5', 'CARDINAL'), ('Societal Acceptance:*', 'ORG'), ("CRISPR-Cas9's", 'ORG'), ('CRISPR-Cas9', 'ORG')]</t>
@@ -6273,21 +6211,19 @@
       <c r="V33" t="n">
         <v>0.7872681501724279</v>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>0.2180094786729858</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9292992949485779</v>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="n">
-        <v>-0.06046773493289948</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.4018425643444061</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.1615966707468033</v>
-      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
           <t>[('two', 'CARDINAL'), ('about 95%', 'PERCENT'), ('Dark Matter:*', 'PERSON'), ('Microwave Background', 'PERSON'), ('CMB', 'ORG'), ('CMB', 'ORG'), ('the Big Bang', 'GPE'), ('Dark Energy:*', 'ORG'), ('about 68%', 'PERCENT'), ('Challenges and Ongoing Research:*', 'ORG'), ('Developing Models:**  Developing', 'WORK_OF_ART'), ('years', 'DATE')]</t>
@@ -6442,21 +6378,19 @@
       <c r="V34" t="n">
         <v>0.5194819438157791</v>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9210896492004395</v>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="n">
-        <v>-0.122647263109684</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.3246379494667053</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.09255068749189377</v>
-      </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
           <t>[('## Challenges and', 'MONEY'), ('Developing Artificial General Intelligence', 'ORG'), ('Artificial General Intelligence', 'ORG'), ('AI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('Data Requirements:*', 'ORG'), ('AGI', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Personalized Learning &amp; Healthcare', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('Focus on Ethical Development:*', 'ORG'), ('AI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG'), ('AGI', 'ORG')]</t>
@@ -6613,21 +6547,19 @@
       <c r="V35" t="n">
         <v>0.6348702210602938</v>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>0.1830985915492958</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9153183102607727</v>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="n">
-        <v>-0.08452124893665314</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.3336604237556458</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.1173747926950455</v>
-      </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
           <t>[('## Neuroplasticity', 'MONEY'), ('decades', 'DATE'), ('1', 'CARDINAL'), ('Learning &amp; Memory:*', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Brain Injury Recovery:*', 'ORG')]</t>
@@ -6784,21 +6716,19 @@
       <c r="V36" t="n">
         <v>0.271486044201327</v>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.8019484281539917</v>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="n">
-        <v>-0.3370234072208405</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.02133311703801155</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>-0.1626646369695663</v>
-      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr">
         <is>
           <t>[('7000', 'DATE'), ('64', 'CARDINAL'), ('128', 'CARDINAL'), ('192', 'CARDINAL'), ('GB', 'GPE'), ('3200', 'CARDINAL'), ('8', 'CARDINAL'), ('Redundant Power Supply and Fan Modules', 'WORK_OF_ART'), ('2x 10GbE', 'MONEY'), ('4x 2.5GbE Network Interfaces', 'QUANTITY'), ('5.0', 'CARDINAL'), ('Ethernet', 'PERSON'), ('Optional 10GbE Optical', 'ORG'), ('AI', 'ORG')]</t>
@@ -6946,21 +6876,19 @@
       <c r="V37" t="n">
         <v>0.5971067566462644</v>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>0.2835820895522388</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.8978885412216187</v>
+      </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="n">
-        <v>-0.05174286663532257</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.4995935559272766</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.2104915976524353</v>
-      </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr">
         <is>
           <t>[('Indian-American', 'NORP'), ('AngelList', 'ORG'), ('Investor &amp; Founder:*', 'ORG'), ('Uber, Airbnb', 'ORG'), ('Stripe', 'PRODUCT'), ('Reddit', 'NORP'), ('Author &amp; Speaker:**', 'ORG'), ('Mastering Bitcoin', 'WORK_OF_ART'), ('Reply All', 'WORK_OF_ART'), ('Key Aspects', 'ORG'), ('The Importance of Bitcoin:**', 'ORG')]</t>
@@ -7124,21 +7052,19 @@
       <c r="V38" t="n">
         <v>0.7807317342128181</v>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+      <c r="W38" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.9613347053527832</v>
+      </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="n">
-        <v>0.07116616517305374</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.0839373767375946</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.07904259115457535</v>
-      </c>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr">
         <is>
           <t>[('## Chapter 1', 'MONEY'), ('The Echo Chamber', 'ORG'), ('Elena', 'ORG'), ('Earth', 'LOC'), ('Collective', 'PERSON'), ('Elena', 'ORG'), ('one', 'CARDINAL'), ('Exodus', 'PRODUCT'), ('Earth', 'LOC'), ('Earth', 'LOC'), ('Three', 'CARDINAL'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('years', 'DATE'), ('one', 'CARDINAL'), ('The Pioneers', 'WORK_OF_ART'), ('Earth', 'LOC'), ('Guardians', 'NORP'), ('two feet', 'QUANTITY'), ('Pioneers', 'NORP'), ('Innovators', 'NORP'), ('Guardians', 'NORP'), ('Elena', 'ORG'), ('Elena', 'ORG'), ('first', 'ORDINAL'), ('Elena', 'ORG')]</t>
@@ -7294,21 +7220,19 @@
       <c r="V39" t="n">
         <v>0.4394119769644053</v>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+      <c r="W39" t="n">
+        <v>0.162037037037037</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.8667786121368408</v>
+      </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="n">
-        <v>-0.27629354596138</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.1817364990711212</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>-0.05627918615937233</v>
-      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr">
         <is>
           <t>[('##', 'MONEY'), ('P - Positive Changes:*', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('SPIRE', 'ORG'), ('today', 'DATE'), ('daily', 'DATE'), ('3', 'CARDINAL'), ('4', 'CARDINAL'), ('SPIRE', 'ORG'), ('SPIRE', 'ORG'), ('daily', 'DATE')]</t>
@@ -7464,21 +7388,19 @@
       <c r="V40" t="n">
         <v>0.4337651999172828</v>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>0.1396648044692737</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.8644601106643677</v>
+      </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="n">
-        <v>-0.2129784822463989</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.2439081519842148</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.006550095044076443</v>
-      </c>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr">
         <is>
           <t>[('Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Foshan', 'GPE'), ('Guangdong province', 'GPE'), ('China', 'GPE'), ('the 18th century', 'DATE'), ('Yim Wing Chun', 'PERSON'), ('Chinese', 'NORP'), ('Internal Energy Cultivation', 'ORG'), ('Chinese', 'NORP'), ('Hollywood', 'GPE'), ('Popularized Wing Chun', 'PERSON'), ('West', 'LOC'), ("Bruce Lee's", 'PERSON'), ('Jeet Kune', 'EVENT'), ('The Grandmaster', 'WORK_OF_ART'), ('millions', 'CARDINAL'), ('Wing Chun', 'PERSON')]</t>
@@ -7633,21 +7555,19 @@
       <c r="V41" t="n">
         <v>0.6194039868350554</v>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.9146931171417236</v>
+      </c>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="n">
-        <v>-0.12920081615448</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.3752782046794891</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.1119163185358047</v>
-      </c>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr">
         <is>
           <t>[('Morihei Ueshiba', 'PERSON'), ('1904-1969', 'DATE'), ('Japanese', 'NORP'), ('Aikido', 'GPE'), ('Aikido', 'PERSON'), ('today', 'DATE'), ('Aikido', 'PERSON'), ('the early 20th century', 'DATE'), ('Japanese', 'NORP'), ('Ueshiba', 'ORG'), ('Aikido', 'NORP'), ('Aikido', 'PERSON'), ('Ueshiba', 'ORG'), ('Oshogaki', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido', 'GPE'), ('Ueshiba', 'ORG'), ('Martial Arts:*', 'ORG'), ('Aikido', 'PERSON'), ('Health &amp; Self-Improvement:*', 'ORG'), ('Ueshiba', 'ORG'), ('Morihei Ueshiba', 'PERSON'), ('Aikido', 'PERSON'), ('the Aikikai Hombu Dojo', 'ORG'), ('Tokyo', 'GPE'), ('Articles', 'PERSON'), ('Ueshiba', 'ORG'), ('The Art of Aikido', 'WORK_OF_ART'), ('Ueshiba', 'ORG'), ('Aikido: The Way of Peace', 'WORK_OF_ART'), ("Morihei Ueshiba's", 'PERSON'), ('Aikido', 'GPE')]</t>
@@ -7796,21 +7716,19 @@
       <c r="V42" t="n">
         <v>0.5899586712775844</v>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>0.1730769230769231</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9020837545394897</v>
+      </c>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="n">
-        <v>-0.1378966718912125</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.3789852261543274</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.1087943688035011</v>
-      </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr">
         <is>
           <t>[('Miyamoto Musashi', 'PERSON'), ('1584-1645', 'DATE'), ('Japanese', 'NORP'), ('one', 'CARDINAL'), ('Musashi', 'PERSON'), ('Two', 'CARDINAL'), ('two', 'CARDINAL'), ('The Way of the Sword', 'WORK_OF_ART'), ('The Art of Disappearances', 'WORK_OF_ART'), ('Legendary Battles:*', 'PERSON'), ('Musashi', 'PERSON'), ('Sasaki Kojiro', 'GPE'), ('Musashi', 'PERSON'), ('Literary Legacy', 'PERSON'), ('The Book of Five Rings:*', 'WORK_OF_ART'), ('Musashi', 'PERSON'), ('the centuries', 'DATE'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('today', 'DATE')]</t>
@@ -7963,21 +7881,19 @@
       <c r="V43" t="n">
         <v>0.6490503284205824</v>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>0.2131979695431472</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.9234311580657959</v>
+      </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="n">
-        <v>-0.03237369656562805</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.3179242610931396</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.138144239783287</v>
-      </c>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
           <t>[('The Book of Five Rings', 'WORK_OF_ART'), ('Miyamoto Musashi', 'PERSON'), ('Japanese', 'NORP'), ('the 17th century', 'DATE'), ('five', 'CARDINAL'), ('Samurai', 'PERSON'), ('Musashi', 'PERSON'), ('first', 'ORDINAL'), ('The Book of Five Rings', 'WORK_OF_ART'), ('between 1645-1649', 'DATE'), ('Musashi', 'PERSON'), ('Edo', 'ORG'), ('The "Book of Five Rings', 'WORK_OF_ART'), ('The Book of Five Rings', 'WORK_OF_ART')]</t>
@@ -8135,21 +8051,19 @@
       <c r="V44" t="n">
         <v>0.5255544795116468</v>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>0.1531100478468899</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.8599045872688293</v>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="n">
-        <v>-0.1783471703529358</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.4258473515510559</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0.1071754768490791</v>
-      </c>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
           <t>[('Society &amp; Culture:*', 'ORG'), ('Redefined Art &amp; Creativity:*', 'ORG'), ('New Social Structures:*', 'ORG'), ('Challenges &amp; Potential Solutions:*', 'ORG')]</t>
@@ -8305,21 +8219,19 @@
       <c r="V45" t="n">
         <v>0.4688677697212582</v>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>0.1404494382022472</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.8269296884536743</v>
+      </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="n">
-        <v>-0.2584189474582672</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.3546854257583618</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0.03086564876139164</v>
-      </c>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr">
         <is>
           <t>[('ActivityPub', 'ORG'), ('Twitter', 'PERSON'), ('Fediverse', 'PERSON'), ('Fediverse', 'PERSON'), ('Reddit', 'NORP'), ('Discord', 'GPE'), ('Mastodon', 'GPE'), ('Mastodon', 'PERSON'), ('Twitter', 'PERSON'), ('YouTube', 'ORG')]</t>
@@ -8472,21 +8384,19 @@
       <c r="V46" t="n">
         <v>0.4872128889080313</v>
       </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>0.1243243243243243</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.8985929489135742</v>
+      </c>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="n">
-        <v>-0.127874955534935</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.346197098493576</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.09949808567762375</v>
-      </c>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr">
         <is>
           <t>[('Walden', 'WORK_OF_ART'), ('Henry David Thoreau', 'PERSON'), ('1', 'CARDINAL'), ('Simplicity &amp; Self-Reliance:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden Pond', 'FAC'), ('two years', 'DATE'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Walden', 'WORK_OF_ART'), ('Freedom &amp; Conformity:*', 'ORG'), ('4', 'CARDINAL'), ('Reflection on Society &amp; Technology:*', 'ORG'), ('Thoreau', 'ORG'), ('Walden', 'GPE'), ('today', 'DATE')]</t>
@@ -8662,21 +8572,19 @@
       <c r="V47" t="n">
         <v>0.4644349336300609</v>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9325737953186035</v>
+      </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="n">
-        <v>-0.1191203817725182</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.1722757965326309</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0.02389458566904068</v>
-      </c>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
           <t>[('weekly', 'DATE'), ('Week 1 - Focus', 'DATE'), ('Legs &amp; Core', 'ORG'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('30 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('30 seconds', 'TIME'), ('Week 2 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('45 seconds', 'TIME'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('10-12', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 3 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('3', 'CARDINAL'), ('8-10', 'CARDINAL'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('Romanian Deadlifts', 'PERSON'), ('3', 'CARDINAL'), ('8-12', 'CARDINAL'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('15-20', 'CARDINAL'), ('5 minutes', 'TIME'), ('Week 4 - Focus', 'DATE'), ('5 minutes', 'TIME'), ('30-45 minutes', 'TIME'), ('Include', 'ORG'), ('Russian', 'NORP'), ('5 minutes', 'TIME'), ('each week', 'DATE')]</t>
@@ -8836,21 +8744,19 @@
       <c r="V48" t="n">
         <v>0.5711879327373028</v>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.8994871973991394</v>
+      </c>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="n">
-        <v>-0.1572923809289932</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.2509928941726685</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.04005669057369232</v>
-      </c>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('third', 'ORDINAL'), ('2', 'CARDINAL'), ('Model Focus:*', 'PERSON'), ('Gmail', 'PERSON'), ('Amazon', 'ORG'), ('3', 'CARDINAL'), ('Complex Data Structures:*', 'ORG'), ('jargon', 'ORG'), ('Data:*', 'ORG'), ('4', 'CARDINAL'), ('Competition &amp; Market Dynamics:*', 'ORG'), ('Competitive Advantage:*', 'ORG'), ('5', 'CARDINAL'), ('Balancing Privacy &amp; Innovation:*', 'ORG'), ('Paramount', 'ORG')]</t>
@@ -8996,21 +8902,19 @@
       <c r="V49" t="n">
         <v>0.5839622441942823</v>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9259357452392578</v>
+      </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="n">
-        <v>-0.1165967360138893</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0.000178277085069567</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>-0.05718504637479782</v>
-      </c>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr">
         <is>
           <t>[('## Fight Club', 'MONEY'), ('Chapter 1 - A New Type of Echo', 'LAW'), ('Tyler', 'PERSON'), ('Tyler', 'PERSON'), ('a thousand', 'CARDINAL'), ('Tyler', 'PERSON'), ('night', 'TIME'), ('Tyler', 'PERSON'), ('Tyler', 'ORG'), ('Tyler', 'ORG')]</t>
@@ -9153,21 +9057,19 @@
       <c r="V50" t="n">
         <v>0.3279764895210033</v>
       </c>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.2434139251708984</v>
+      </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="n">
-        <v>-0.4606024324893951</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>-0.07491493225097656</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>-0.2736440300941467</v>
-      </c>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr">
         <is>
           <t>[('a clear day', 'DATE')]</t>
@@ -9303,21 +9205,19 @@
       <c r="V51" t="n">
         <v>0.1778423610908229</v>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.3891147375106812</v>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="n">
-        <v>-0.1637458205223083</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0.2895099520683289</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.05415526777505875</v>
-      </c>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('December 25th', 'DATE')]</t>
@@ -9453,21 +9353,19 @@
       <c r="V52" t="n">
         <v>0.5422173768216975</v>
       </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.8662347793579102</v>
+      </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="n">
-        <v>0.5414574146270752</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.6815154552459717</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.6112378835678101</v>
-      </c>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
           <t>[]</t>
@@ -9603,21 +9501,19 @@
       <c r="V53" t="n">
         <v>0.2307679296112307</v>
       </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.6301239728927612</v>
+      </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="n">
-        <v>-0.3910104632377625</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0.3683236241340637</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>-0.03891173750162125</v>
-      </c>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr">
         <is>
           <t>[('Mount Everest', 'LOC'), ('8,848.86 meters', 'QUANTITY'), ('29,032.6 feet', 'QUANTITY')]</t>
@@ -9753,21 +9649,19 @@
       <c r="V54" t="n">
         <v>0.08631140209789417</v>
       </c>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="W54" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.6876027584075928</v>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="n">
-        <v>-0.08317028731107712</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0.1450195610523224</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0.02988739125430584</v>
-      </c>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr">
         <is>
           <t>[('100 degrees Celsius', 'QUANTITY'), ('212 degrees', 'QUANTITY'), ('Fahrenheit', 'WORK_OF_ART')]</t>
@@ -9904,21 +9798,19 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.2525646686553955</v>
+      </c>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>-0.1768083572387695</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.2397228926420212</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0.02432085201144218</v>
-      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE')]</t>
@@ -10054,21 +9946,19 @@
       <c r="V56" t="n">
         <v>0.1718959704551331</v>
       </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.3495970070362091</v>
+      </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>-0.3067499101161957</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0.1023713648319244</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>-0.1090334579348564</v>
-      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr">
         <is>
           <t>[('Harper Lee', 'PERSON'), ('1926', 'DATE'), ('New Orleans', 'GPE'), ('Louisiana', 'GPE'), ('American', 'NORP'), ('Lee', 'PERSON'), ('Mockingbird', 'GPE'), ('Lee', 'PERSON')]</t>
@@ -10205,21 +10095,19 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.3568261563777924</v>
+      </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="n">
-        <v>-0.2439294010400772</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0.114407904446125</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>-0.06960292905569077</v>
-      </c>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr">
         <is>
           <t>[('1', 'CARDINAL'), ('3', 'CARDINAL')]</t>
@@ -10355,21 +10243,19 @@
       <c r="V58" t="n">
         <v>0.2307679296112307</v>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.5115697383880615</v>
+      </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="n">
-        <v>-0.1001063734292984</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.2387317568063736</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0.0651061162352562</v>
-      </c>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr">
         <is>
           <t>[('Christmas', 'DATE'), ('Christians', 'NORP'), ('December 25th to January 1st', 'DATE')]</t>
@@ -10505,21 +10391,19 @@
       <c r="V59" t="n">
         <v>0.6280886237721275</v>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
+      <c r="W59" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.8960116505622864</v>
+      </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="n">
-        <v>0.6443110108375549</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.8022511005401611</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.7226333022117615</v>
-      </c>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
           <t>[]</t>
@@ -10656,21 +10540,19 @@
       <c r="V60" t="n">
         <v>0.3032160644503863</v>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="W60" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.506736695766449</v>
+      </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="n">
-        <v>-0.1826222240924835</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-0.05433524399995804</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-0.1175111085176468</v>
-      </c>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr">
         <is>
           <t>[('France', 'GPE'), ('Paris', 'GPE')]</t>
@@ -10806,21 +10688,19 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.2462533414363861</v>
+      </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="n">
-        <v>-0.2551573812961578</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>-0.06928646564483643</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>-0.1621356010437012</v>
-      </c>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr">
         <is>
           <t>[('7 days', 'DATE'), ('a week', 'DATE'), ('every 7 days', 'DATE')]</t>
@@ -10956,21 +10836,19 @@
       <c r="V62" t="n">
         <v>0.1194063890824266</v>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="W62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.3662397861480713</v>
+      </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="n">
-        <v>-0.4715230166912079</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-0.1028304994106293</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-0.2923757135868073</v>
-      </c>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr">
         <is>
           <t>[('Jupiter', 'LOC'), ('318', 'CARDINAL'), ('Earth', 'LOC'), ('143,892 kilometers', 'QUANTITY'), ('1.431 billion cubic kilometers', 'QUANTITY')]</t>
